--- a/docs/卡死你3000命令手册.xlsx
+++ b/docs/卡死你3000命令手册.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProgramData\kasini3000\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C5BB449-B97B-4795-B43C-8471D8FD7275}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC504F0-D8C3-4E36-A074-119DEE498469}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6240" tabRatio="693" activeTab="9" xr2:uid="{99DAB3B6-FFCD-47B2-A6C4-D70D810330D7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6240" tabRatio="693" activeTab="4" xr2:uid="{99DAB3B6-FFCD-47B2-A6C4-D70D810330D7}"/>
   </bookViews>
   <sheets>
     <sheet name="安装升级" sheetId="6" r:id="rId1"/>
     <sheet name="选择被控机命令" sheetId="2" r:id="rId2"/>
     <sheet name="copy文件命令" sheetId="3" r:id="rId3"/>
     <sheet name="管理员命令行" sheetId="8" r:id="rId4"/>
-    <sheet name="用户定时任务命令" sheetId="11" r:id="rId5"/>
-    <sheet name="密码秘钥" sheetId="5" r:id="rId6"/>
-    <sheet name="杂项命令" sheetId="4" r:id="rId7"/>
-    <sheet name="win声图控制台" sheetId="9" r:id="rId8"/>
-    <sheet name="被控机脚本" sheetId="7" r:id="rId9"/>
-    <sheet name="主控机高可用" sheetId="12" r:id="rId10"/>
+    <sheet name="独立使用命令" sheetId="13" r:id="rId5"/>
+    <sheet name="用户定时任务命令" sheetId="11" r:id="rId6"/>
+    <sheet name="密码秘钥" sheetId="5" r:id="rId7"/>
+    <sheet name="杂项命令" sheetId="4" r:id="rId8"/>
+    <sheet name="win声图控制台" sheetId="9" r:id="rId9"/>
+    <sheet name="被控机脚本" sheetId="7" r:id="rId10"/>
+    <sheet name="主控机高可用" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="236">
   <si>
     <t>命令名</t>
   </si>
@@ -865,42 +866,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>k-commit-rs.ps1的前题是kcd，即必须指定运行脚本的机子。再指定运行的脚本。
--脚本文件名 'd:\主控机目录\脚本名.ps1'
-或
--powershell代码块 { powershell代码 或d:\被控机目录\脚本名.ps1}
-二者之一。 
--端口 22 #只对linux有效。并且端口绑定所有被控机组
--全部传入参数 "'ab c',(get-date)"
-#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>用逗号分隔的字符串，字符串外用单双引号包围</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。脚本或代码块的参数
--任务超时时间 [timespan]'00:10:00' 
--备注 '每个备注尽量不同'
--复制主控机node_script目录到被控机 $true</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bkj_install_k记饭店_win被控机.ps1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1165,42 +1130,6 @@
   </si>
   <si>
     <r>
-      <t>k-commit.ps1的前题是cd，即必须指定多个运行脚本的机子。再指定运行的脚本。
--脚本文件名 'd:\主控机目录\脚本名.ps1'
-或
--powershell代码块 { powershell代码 或d:\被控机目录\脚本名.ps1}
-二者之一。 
--端口 22 #只对linux有效。并且端口绑定所有被控机组
--全部传入参数 "'ab c',(get-date)"
-#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>用逗号分隔的字符串，字符串外用单双引号包围</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。脚本或代码块的参数
--任务超时时间 [timespan]'01:00:00' 
--备注 '每个备注尽量不同'
--复制主控机node_script目录到被控机 $true</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>先用cdip 'ip'进入被控机的ip地址，然后运行脚本。</t>
     </r>
     <r>
@@ -1526,6 +1455,270 @@
   </si>
   <si>
     <t>返回 0.92之类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必须在cdip、cdg之后运行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+k-commit.ps1的前题是cd，即必须指定多个运行脚本的机子。再指定运行的脚本。
+-脚本文件名 'd:\主控机目录\脚本名.ps1'
+或
+-powershell代码块 { powershell代码 或d:\被控机目录\脚本名.ps1}
+二者之一。 
+-端口 22 #只对linux有效。并且端口绑定所有被控机组
+-全部传入参数 "'ab c',(get-date)"
+#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用逗号分隔的字符串，字符串外用单双引号包围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。脚本或代码块的参数
+-任务超时时间 [timespan]'01:00:00' 
+-备注 '每个备注尽量不同'
+-复制主控机node_script目录到被控机 $true</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必须在cdip、cdg之后运行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+k-commit-rs.ps1的前题是kcd，即必须指定运行脚本的机子。再指定运行的脚本。
+-脚本文件名 'd:\主控机目录\脚本名.ps1'
+或
+-powershell代码块 { powershell代码 或d:\被控机目录\脚本名.ps1}
+二者之一。 
+-端口 22 #只对linux有效。并且端口绑定所有被控机组
+-全部传入参数 "'ab c',(get-date)"
+#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用逗号分隔的字符串，字符串外用单双引号包围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。脚本或代码块的参数
+-任务超时时间 [timespan]'00:10:00' 
+-备注 '每个备注尽量不同'
+-复制主控机node_script目录到被控机 $true</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能用途</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>独立使用命令：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k_run_ip_port_l2l_user_pwd.ps1
+k_run_ip_port_w2l_user_pwd.ps1
+k_run_ip_port_w2w_user_pwd.ps1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作用等同于【krun_ip.ps1】用于在被控机运行脚本，或命令块。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【ipaddress】--&gt;【目的ip地址】
+【port】--&gt;【端口】
+【user】--&gt;【用户名】
+【pwd】--&gt;【密码】
+【file】--&gt;【ps1脚本文件名】
+【scriptblock】--&gt;【powershell代码块】
+【allparameter】--&gt;【全部传入参数】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k_copyto_ip_port_l2l_user_pwd.ps1
+k_copyto_ip_port_w2l_user_pwd.ps1
+k_copyto_ip_port_w2w_user_pwd.ps1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k_copyfrom_ip_port_l2l_user_pwd.ps1
+k_copyfrom_ip_port_w2l_user_pwd.ps1
+k_copyfrom_ip_port_w2w_user_pwd.ps1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不依赖nodelist.csv。但需要手动输入【ip】【端口】【账户】【密码】等。无法批量运行。用于脱离卡死你3000，临时使用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作用等同于【krun_copyto_ip.ps1】用于从主控机向被控机复制文件。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作用等同于【krun_copyto_ip.ps1】用于从被控机向主控机复制文件。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>【ipaddress】--&gt;【目的ip地址】
+【port】--&gt;【端口】
+【user】--&gt;【用户名】
+【pwd】--&gt;【密码】
+【LiteralPath】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>主控机上的文件目录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+【Destination】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>被控机上的文件目录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+【Recurse】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>【ipaddress】--&gt;【目的ip地址】
+【port】--&gt;【端口】
+【user】--&gt;【用户名】
+【pwd】--&gt;【密码】
+【LiteralPath】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>被控机上的文件目录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+【Destination】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>主控机上的文件目录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+【Recurse】</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1747,7 +1940,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1858,6 +2051,12 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4021,7 +4220,7 @@
     </row>
     <row r="4" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B4" s="30" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C4" s="30"/>
       <c r="D4" s="30"/>
@@ -4029,7 +4228,7 @@
     <row r="5" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
       <c r="C5" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>60</v>
@@ -4037,13 +4236,13 @@
     </row>
     <row r="6" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4053,7 +4252,7 @@
     </row>
     <row r="8" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B8" s="30" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C8" s="30"/>
       <c r="D8" s="30"/>
@@ -4063,10 +4262,10 @@
         <v>57</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4076,7 +4275,7 @@
     </row>
     <row r="11" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B11" s="30" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C11" s="30"/>
       <c r="D11" s="30"/>
@@ -4102,31 +4301,31 @@
     </row>
     <row r="15" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B15" s="30" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C15" s="30"/>
       <c r="D15" s="30"/>
     </row>
     <row r="16" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>156</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="48" customHeight="1" x14ac:dyDescent="0.2">
@@ -4136,31 +4335,31 @@
     </row>
     <row r="19" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B19" s="30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C19" s="30"/>
       <c r="D19" s="30"/>
     </row>
     <row r="20" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
@@ -4212,10 +4411,143 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32B62EB5-39CF-4228-AA9C-67357F45F2AC}">
+  <dimension ref="B3:D16"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="49.625" customWidth="1"/>
+    <col min="3" max="3" width="73" customWidth="1"/>
+    <col min="4" max="4" width="54.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" ht="45.75" x14ac:dyDescent="0.2">
+      <c r="B3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="148.5" x14ac:dyDescent="0.2">
+      <c r="B4" s="13"/>
+      <c r="C4" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="15"/>
+    </row>
+    <row r="5" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
+      <c r="B10" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="2:4" ht="74.25" x14ac:dyDescent="0.2">
+      <c r="B12" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="B13" s="2"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="B14" s="2"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="B15" s="2"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C096F4A-B7D6-4EB9-9367-C9F04F25B1B1}">
   <dimension ref="B2:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -4241,7 +4573,7 @@
       <c r="B3" s="29"/>
       <c r="C3" s="23"/>
       <c r="D3" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
@@ -4253,53 +4585,53 @@
       <c r="B5" s="20"/>
       <c r="C5" s="21"/>
       <c r="D5" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B6" s="20"/>
       <c r="C6" s="21"/>
       <c r="D6" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B7" s="20"/>
       <c r="C7" s="23"/>
       <c r="D7" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B8" s="20"/>
       <c r="C8" s="21"/>
       <c r="D8" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
       <c r="D9" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B10" s="28"/>
       <c r="C10" s="23"/>
       <c r="D10" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="74.25" x14ac:dyDescent="0.2">
       <c r="B11" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="C11" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="C11" s="24" t="s">
-        <v>164</v>
-      </c>
       <c r="D11" s="24" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
@@ -4309,13 +4641,13 @@
     </row>
     <row r="13" spans="2:4" ht="74.25" x14ac:dyDescent="0.2">
       <c r="B13" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="C13" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="C13" s="24" t="s">
-        <v>166</v>
-      </c>
       <c r="D13" s="24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
@@ -4361,14 +4693,14 @@
     </row>
     <row r="4" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="3"/>
     </row>
     <row r="5" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B5" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="3"/>
@@ -4397,7 +4729,7 @@
         <v>79</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
@@ -4408,7 +4740,7 @@
         <v>24</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
@@ -4419,7 +4751,7 @@
         <v>25</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="74.25" x14ac:dyDescent="0.2">
@@ -4430,7 +4762,7 @@
         <v>26</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="123.75" x14ac:dyDescent="0.2">
@@ -4441,7 +4773,7 @@
         <v>31</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
@@ -4490,13 +4822,13 @@
     </row>
     <row r="17" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
@@ -4509,7 +4841,7 @@
         <v>126</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>32</v>
@@ -4559,7 +4891,7 @@
     <row r="4" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B4" s="10"/>
       <c r="C4" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D4" s="11"/>
     </row>
@@ -4568,10 +4900,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
@@ -4584,10 +4916,10 @@
         <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="99" x14ac:dyDescent="0.2">
@@ -4595,7 +4927,7 @@
         <v>47</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>68</v>
@@ -4621,7 +4953,7 @@
   <dimension ref="B2:E12"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B2" sqref="B2:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4643,7 +4975,7 @@
         <v>74</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="198" x14ac:dyDescent="0.2">
@@ -4654,7 +4986,7 @@
         <v>75</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E3" s="33"/>
     </row>
@@ -4674,13 +5006,13 @@
         <v>147</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="371.25" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="396" x14ac:dyDescent="0.2">
       <c r="B6" s="20" t="s">
         <v>138</v>
       </c>
@@ -4688,10 +5020,10 @@
         <v>137</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="123.75" x14ac:dyDescent="0.2">
@@ -4705,7 +5037,7 @@
         <v>110</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="123.75" x14ac:dyDescent="0.2">
@@ -4719,7 +5051,7 @@
         <v>111</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="24.75" x14ac:dyDescent="0.2">
@@ -4728,18 +5060,18 @@
       <c r="D9" s="24"/>
       <c r="E9" s="33"/>
     </row>
-    <row r="10" spans="2:5" ht="371.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:5" ht="396" x14ac:dyDescent="0.2">
       <c r="B10" s="20" t="s">
         <v>127</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>149</v>
+        <v>223</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="123.75" x14ac:dyDescent="0.2">
@@ -4753,7 +5085,7 @@
         <v>110</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="123.75" x14ac:dyDescent="0.2">
@@ -4767,7 +5099,7 @@
         <v>111</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -4781,6 +5113,85 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA5960FD-8EC2-4E9F-A689-6D938F10DD67}">
+  <dimension ref="B2:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="1.875" customWidth="1"/>
+    <col min="2" max="2" width="59.75" customWidth="1"/>
+    <col min="3" max="3" width="69.875" customWidth="1"/>
+    <col min="4" max="4" width="59.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" ht="45.75" x14ac:dyDescent="0.2">
+      <c r="B2" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="33" t="s">
+        <v>225</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3" s="38"/>
+    </row>
+    <row r="4" spans="2:4" ht="173.25" x14ac:dyDescent="0.2">
+      <c r="B4" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="173.25" x14ac:dyDescent="0.2">
+      <c r="B5" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="173.25" x14ac:dyDescent="0.2">
+      <c r="B6" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>235</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C3:D3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEE84CC1-37C0-47B0-89BC-6C6491C0B7ED}">
   <dimension ref="B3:D28"/>
   <sheetViews>
@@ -4803,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="272.25" x14ac:dyDescent="0.2">
@@ -4814,7 +5225,7 @@
         <v>125</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="346.5" x14ac:dyDescent="0.2">
@@ -4882,7 +5293,7 @@
         <v>116</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="272.25" x14ac:dyDescent="0.2">
@@ -4952,10 +5363,10 @@
         <v>106</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D21" s="32" t="s">
         <v>214</v>
-      </c>
-      <c r="D21" s="32" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="123.75" x14ac:dyDescent="0.2">
@@ -4963,10 +5374,10 @@
         <v>107</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
@@ -4977,7 +5388,7 @@
     <row r="24" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B24" s="2"/>
       <c r="C24" s="36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D24" s="35"/>
     </row>
@@ -5013,7 +5424,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3DA9E24-77E2-413D-8C7E-FFAE0922047D}">
   <dimension ref="B3:D21"/>
   <sheetViews>
@@ -5130,7 +5541,7 @@
         <v>53</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
@@ -5141,7 +5552,7 @@
         <v>55</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5199,7 +5610,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BCF84EE-A6D5-4D87-93BF-A5A95BE4D210}">
   <dimension ref="B3:D14"/>
   <sheetViews>
@@ -5320,7 +5731,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06E65B66-6452-45A1-AB5A-A63AF65A2652}">
   <dimension ref="B2:D22"/>
   <sheetViews>
@@ -5446,7 +5857,7 @@
         <v>81</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D14" s="27" t="s">
         <v>82</v>
@@ -5513,139 +5924,6 @@
       <c r="B22" s="25"/>
       <c r="C22" s="26"/>
       <c r="D22" s="27"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32B62EB5-39CF-4228-AA9C-67357F45F2AC}">
-  <dimension ref="B3:D16"/>
-  <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="49.625" customWidth="1"/>
-    <col min="3" max="3" width="73" customWidth="1"/>
-    <col min="4" max="4" width="54.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:4" ht="45.75" x14ac:dyDescent="0.2">
-      <c r="B3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" ht="148.5" x14ac:dyDescent="0.2">
-      <c r="B4" s="13"/>
-      <c r="C4" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" s="15"/>
-    </row>
-    <row r="5" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="B8" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="B9" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="B10" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="B11" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="2:4" ht="74.25" x14ac:dyDescent="0.2">
-      <c r="B12" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
-      <c r="B13" s="2"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
-      <c r="B14" s="2"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
-      <c r="B15" s="2"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/docs/卡死你3000命令手册.xlsx
+++ b/docs/卡死你3000命令手册.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20366"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20368"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProgramData\kasini3000\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC504F0-D8C3-4E36-A074-119DEE498469}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02490EB4-9F83-4C39-AF7C-ECCC4A748B30}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6240" tabRatio="693" activeTab="4" xr2:uid="{99DAB3B6-FFCD-47B2-A6C4-D70D810330D7}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="260">
   <si>
     <t>命令名</t>
   </si>
@@ -193,9 +193,6 @@
   </si>
   <si>
     <t>gx更新主控机ssh秘钥1.ps1</t>
-  </si>
-  <si>
-    <t>gx更新主控机ssh秘钥2z.ps1</t>
   </si>
   <si>
     <t>给被控机安装软件。封装了yum和apt-get</t>
@@ -882,10 +879,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>支持下列参数 'win7','win8','win10','win2008r2','win2012r2','win2016','win2019','centos6','centos7','centos8','debian9','debian10','ubuntu1404','ubuntu1604','ubuntu1804','alpine'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>zkj_install_powershell_从win主控机到linux被控机.ps1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1574,16 +1567,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>k_run_ip_port_l2l_user_pwd.ps1
-k_run_ip_port_w2l_user_pwd.ps1
-k_run_ip_port_w2w_user_pwd.ps1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作用等同于【krun_ip.ps1】用于在被控机运行脚本，或命令块。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>【ipaddress】--&gt;【目的ip地址】
 【port】--&gt;【端口】
 【user】--&gt;【用户名】
@@ -1594,30 +1577,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>k_copyto_ip_port_l2l_user_pwd.ps1
-k_copyto_ip_port_w2l_user_pwd.ps1
-k_copyto_ip_port_w2w_user_pwd.ps1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>k_copyfrom_ip_port_l2l_user_pwd.ps1
-k_copyfrom_ip_port_w2l_user_pwd.ps1
-k_copyfrom_ip_port_w2w_user_pwd.ps1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不依赖nodelist.csv。但需要手动输入【ip】【端口】【账户】【密码】等。无法批量运行。用于脱离卡死你3000，临时使用。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作用等同于【krun_copyto_ip.ps1】用于从主控机向被控机复制文件。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作用等同于【krun_copyto_ip.ps1】用于从被控机向主控机复制文件。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>【ipaddress】--&gt;【目的ip地址】
 【port】--&gt;【端口】
@@ -1721,12 +1680,485 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>psed.ps1=ps找算替v3.15.ps1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查找-替换文本的，工具软件。手册在/docs/ps找算替_v3_readme.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\admin_gui\f发钉钉报警.ps1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\admin_gui\pic\Set-Wallpaper设定桌面墙纸.ps1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\admin_gui\bf播放音乐和视频.ps1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k_copyfrom_ip_port_w2l_user_expect_pwd.ps1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k_copyto_ip_port_w2l_user_expect_pwd.ps1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k_run_ip_port_w2l_user_expect_pwd.ps1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>【ipaddress】--&gt;【目的ip地址】
+【port】--&gt;【端口】
+【user】--&gt;【用户名】
+【pwd】--&gt;【密码】
+【LiteralPath】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>主控机上的文件目录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+【Destination】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>被控机上的文件目录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+【Recurse】
+【sudo】以root权限复制
+【timeout】超时
+【showwindow】显示窗口</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>【ipaddress】--&gt;【目的ip地址】
+【port】--&gt;【端口】
+【user】--&gt;【用户名】
+【pwd】--&gt;【密码】
+【LiteralPath】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>被控机上的文件目录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+【Destination】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>主控机上的文件目录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+【Recurse】
+【sudo】以root权限复制
+【timeout】超时
+【showwindow】显示窗口</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作用等同于【k_copyfrom_ip.ps1】用于从被控机向主控机复制文件。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作用等同于【k_copyto_ip.ps1】用于从主控机向被控机复制文件。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k_run_ip_port_winscp2bash_user_pwd.ps1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k_copyfrom_ip_port_winscp2bash_user_pwd.ps1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k_copyto_ip_port_winscp2bash_user_pwd.ps1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认是，连同子目录一起复制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>↑上面的命令，要求被控机上安装了powershell，并且在sshd文件中激活powershell。
+↓下面的命令，要求在主控机是win，上安装winscp模块，被控机要求bash即可。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【ipaddress】--&gt;【目的ip地址】
+【port】--&gt;【端口】
+【user】--&gt;【用户名】
+【pwd】--&gt;【密码】
+【command】--&gt;【单行shell命令】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从主控机linux到linux被控机，想要自动输入密码登录，需要手动编写ps1脚本，调用expect。
+或者依赖卡死你3000，做ssh-keyfile免密。
+或者用多个卡死你3000主控机。一个是linux，另一个是win。从win主控机上，即可自动输入密码。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">k_run_ip_port_l2l_user.ps1
+k_run_ip_port_w2l_user.ps1
+k_run_ip_port_w2w_user_pwd.ps1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不带有pwd的，需要手动输入密码。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">k_copyto_ip_port_l2l_user.ps1
+k_copyto_ip_port_w2l_user.ps1
+k_copyto_ip_port_w2w_user_pwd.ps1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不带有pwd的，需要手动输入密码。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">k_copyfrom_ip_port_l2l_user.ps1
+k_copyfrom_ip_port_w2l_user.ps1
+k_copyfrom_ip_port_w2w_user_pwd.ps1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不带有pwd的，需要手动输入密码。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只支持单行命令，不支持传参。有字符串级别的返回值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>作用等同于【k_copyfrom_ip.ps1】用于从被控机向主控机复制文件。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>多了2个功能：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+1从win到linux自动输入密码。
+2支持sudo提权。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">作用等同于【krun_ip.ps1】用于从主控机向被控机执行命令。多了2个功能：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1从win到linux自动输入密码。
+2支持sudo提权。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3不支持传参，没有返回值。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">作用等同于【k_copyto_ip.ps1】用于从主控机向被控机复制文件。多了2个功能：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1从win到linux自动输入密码。
+2支持sudo提权。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作用等同于【krun_ip.ps1】用于在被控机运行脚本，或命令块。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【ipaddress】--&gt;【目的ip地址】
+【port】--&gt;【端口】
+【user】--&gt;【用户名】
+【pwd】--&gt;【密码】
+【sudo】以root权限执行
+【timeout】超时
+【showwindow】显示窗口
+【file】主控机上的脚本文件名
+【ps1Command】ps1代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>【ipaddress】--&gt;【目的ip地址】
+【port】--&gt;【端口】
+【user】--&gt;【用户名】
+【pwd】--&gt;【密码】
+【LiteralPath】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>主控机上的文件目录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+【Destination】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>被控机上的文件目录</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>【ipaddress】--&gt;【目的ip地址】
+【port】--&gt;【端口】
+【user】--&gt;【用户名】
+【pwd】--&gt;【密码】
+【LiteralPath】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>被控机上的文件目录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+【Destination】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>主控机上的文件目录</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不依赖nodelist.csv。但需要手动输入【ip】【端口】【账户】【密码】等。用于脱离卡死你3000，临时使用。带有pwd的全可以顺序批量，不能并发批量。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持下列参数 'win7','win8','win10','win2008r2','win2012r2','win2016','win2019','centos6','centos7','centos8','debian9','debian10','ubuntu1404','ubuntu1604','ubuntu1804','ubuntu2004','Amazon Linux 2','kylin v10','alpine'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gx更新主控机ssh秘钥2z.ps1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1775,6 +2207,12 @@
     <font>
       <sz val="18"/>
       <color rgb="FFFFFF00"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="18"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -1940,7 +2378,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2052,10 +2490,19 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3863,8 +4310,8 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{49F70CF6-5CF8-469A-9B1A-D67E52AB52EA}" name="表10_6" displayName="表10_6" ref="B2:D22" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18" totalsRowBorderDxfId="17">
-  <autoFilter ref="B2:D22" xr:uid="{1775A49D-43C1-4A83-A62A-206DB5946BFD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{49F70CF6-5CF8-469A-9B1A-D67E52AB52EA}" name="表10_6" displayName="表10_6" ref="B2:D25" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18" totalsRowBorderDxfId="17">
+  <autoFilter ref="B2:D25" xr:uid="{1775A49D-43C1-4A83-A62A-206DB5946BFD}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{A8E655E8-2506-4354-8DFB-AF6A92FA36C1}" name="命令名" dataDxfId="16"/>
     <tableColumn id="2" xr3:uid="{A8D0AE82-A14A-411C-9E33-82F843B05114}" name="功能用途" dataDxfId="15"/>
@@ -4185,8 +4632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E382E6B1-25F2-40AE-8128-E7D6AD7990BA}">
   <dimension ref="B2:D28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4209,10 +4656,10 @@
     </row>
     <row r="3" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>40</v>
@@ -4220,7 +4667,7 @@
     </row>
     <row r="4" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B4" s="30" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C4" s="30"/>
       <c r="D4" s="30"/>
@@ -4228,21 +4675,21 @@
     <row r="5" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
       <c r="C5" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4252,20 +4699,20 @@
     </row>
     <row r="8" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B8" s="30" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C8" s="30"/>
       <c r="D8" s="30"/>
     </row>
     <row r="9" spans="2:4" ht="74.25" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4275,21 +4722,21 @@
     </row>
     <row r="11" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B11" s="30" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C11" s="30"/>
       <c r="D11" s="30"/>
     </row>
     <row r="12" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="3"/>
@@ -4301,31 +4748,31 @@
     </row>
     <row r="15" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B15" s="30" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C15" s="30"/>
       <c r="D15" s="30"/>
     </row>
     <row r="16" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="48" customHeight="1" x14ac:dyDescent="0.2">
@@ -4335,31 +4782,31 @@
     </row>
     <row r="19" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B19" s="30" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C19" s="30"/>
       <c r="D19" s="30"/>
     </row>
     <row r="20" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
@@ -4414,8 +4861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32B62EB5-39CF-4228-AA9C-67357F45F2AC}">
   <dimension ref="B3:D16"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4439,7 +4886,7 @@
     <row r="4" spans="2:4" ht="148.5" x14ac:dyDescent="0.2">
       <c r="B4" s="13"/>
       <c r="C4" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D4" s="15"/>
     </row>
@@ -4448,7 +4895,7 @@
         <v>39</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>35</v>
@@ -4456,66 +4903,70 @@
     </row>
     <row r="6" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="2:4" ht="74.25" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
-      <c r="B13" s="2"/>
-      <c r="C13" s="1"/>
+        <v>218</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>228</v>
+      </c>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
@@ -4547,8 +4998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C096F4A-B7D6-4EB9-9367-C9F04F25B1B1}">
   <dimension ref="B2:D14"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4566,14 +5017,14 @@
         <v>1</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="99" x14ac:dyDescent="0.2">
       <c r="B3" s="29"/>
       <c r="C3" s="23"/>
       <c r="D3" s="22" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
@@ -4585,53 +5036,53 @@
       <c r="B5" s="20"/>
       <c r="C5" s="21"/>
       <c r="D5" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B6" s="20"/>
       <c r="C6" s="21"/>
       <c r="D6" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B7" s="20"/>
       <c r="C7" s="23"/>
       <c r="D7" s="24" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B8" s="20"/>
       <c r="C8" s="21"/>
       <c r="D8" s="22" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
       <c r="D9" s="22" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B10" s="28"/>
       <c r="C10" s="23"/>
       <c r="D10" s="24" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="74.25" x14ac:dyDescent="0.2">
       <c r="B11" s="28" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
@@ -4641,13 +5092,13 @@
     </row>
     <row r="13" spans="2:4" ht="74.25" x14ac:dyDescent="0.2">
       <c r="B13" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C13" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="D13" s="24" t="s">
         <v>165</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
@@ -4669,8 +5120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F3ADB3-C8C0-4D73-A308-2B76D0CFA023}">
   <dimension ref="B3:D20"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4693,14 +5144,14 @@
     </row>
     <row r="4" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="3"/>
     </row>
     <row r="5" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B5" s="10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="3"/>
@@ -4723,13 +5174,13 @@
     </row>
     <row r="8" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="D8" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
@@ -4740,7 +5191,7 @@
         <v>24</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
@@ -4751,7 +5202,7 @@
         <v>25</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="74.25" x14ac:dyDescent="0.2">
@@ -4762,10 +5213,10 @@
         <v>26</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" ht="123.75" x14ac:dyDescent="0.2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="148.5" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>15</v>
       </c>
@@ -4773,7 +5224,7 @@
         <v>31</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>153</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
@@ -4822,13 +5273,13 @@
     </row>
     <row r="17" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="3" t="s">
         <v>151</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
@@ -4838,10 +5289,10 @@
     </row>
     <row r="19" spans="2:4" ht="99" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>32</v>
@@ -4866,7 +5317,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A2EB81D-6C74-4CC5-B28F-5D675FA16AE3}">
   <dimension ref="B3:D9"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -4891,7 +5342,7 @@
     <row r="4" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B4" s="10"/>
       <c r="C4" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D4" s="11"/>
     </row>
@@ -4900,10 +5351,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
@@ -4916,21 +5367,21 @@
         <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="99" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
@@ -4952,8 +5403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E04B6D6-8A0D-447F-9E16-D0B486F8063D}">
   <dimension ref="B2:E12"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E6"/>
+    <sheetView topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4972,10 +5423,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="198" x14ac:dyDescent="0.2">
@@ -4983,75 +5434,75 @@
         <v>2</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E3" s="33"/>
     </row>
     <row r="4" spans="2:5" ht="74.25" x14ac:dyDescent="0.2">
       <c r="B4" s="20"/>
       <c r="C4" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="32"/>
     </row>
     <row r="5" spans="2:5" ht="247.5" x14ac:dyDescent="0.2">
       <c r="B5" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="396" x14ac:dyDescent="0.2">
       <c r="B6" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="123.75" x14ac:dyDescent="0.2">
       <c r="B7" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="123.75" x14ac:dyDescent="0.2">
       <c r="B8" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="24.75" x14ac:dyDescent="0.2">
@@ -5062,44 +5513,44 @@
     </row>
     <row r="10" spans="2:5" ht="396" x14ac:dyDescent="0.2">
       <c r="B10" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="123.75" x14ac:dyDescent="0.2">
       <c r="B11" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="123.75" x14ac:dyDescent="0.2">
       <c r="B12" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -5114,16 +5565,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA5960FD-8EC2-4E9F-A689-6D938F10DD67}">
-  <dimension ref="B2:D6"/>
+  <dimension ref="B2:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.875" customWidth="1"/>
-    <col min="2" max="2" width="59.75" customWidth="1"/>
+    <col min="2" max="2" width="61.25" customWidth="1"/>
     <col min="3" max="3" width="69.875" customWidth="1"/>
     <col min="4" max="4" width="59.25" customWidth="1"/>
   </cols>
@@ -5133,57 +5584,139 @@
         <v>23</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="33" t="s">
-        <v>225</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>231</v>
-      </c>
-      <c r="D3" s="38"/>
+      <c r="B3" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>257</v>
+      </c>
+      <c r="D3" s="39"/>
     </row>
     <row r="4" spans="2:4" ht="173.25" x14ac:dyDescent="0.2">
       <c r="B4" s="32" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="173.25" x14ac:dyDescent="0.2">
       <c r="B5" s="33" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="173.25" x14ac:dyDescent="0.2">
       <c r="B6" s="32" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="C6" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="247.5" x14ac:dyDescent="0.2">
+      <c r="B7" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>250</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="247.5" x14ac:dyDescent="0.2">
+      <c r="B8" s="32" t="s">
         <v>233</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="C8" s="32" t="s">
+        <v>252</v>
+      </c>
+      <c r="D8" s="32" t="s">
         <v>235</v>
       </c>
     </row>
+    <row r="9" spans="2:4" ht="222.75" x14ac:dyDescent="0.2">
+      <c r="B9" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>251</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="40" t="s">
+        <v>243</v>
+      </c>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+    </row>
+    <row r="11" spans="2:4" ht="123.75" x14ac:dyDescent="0.2">
+      <c r="B11" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="148.5" x14ac:dyDescent="0.2">
+      <c r="B12" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>242</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="148.5" x14ac:dyDescent="0.2">
+      <c r="B13" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>242</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="40" t="s">
+        <v>245</v>
+      </c>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B14:D14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5195,8 +5728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEE84CC1-37C0-47B0-89BC-6C6491C0B7ED}">
   <dimension ref="B3:D28"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5214,69 +5747,69 @@
         <v>9</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="272.25" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="346.5" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
       <c r="C5" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D5" s="35"/>
     </row>
     <row r="6" spans="2:4" ht="74.25" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D6" s="35"/>
     </row>
     <row r="7" spans="2:4" ht="74.25" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D7" s="35"/>
     </row>
     <row r="8" spans="2:4" ht="74.25" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D8" s="35"/>
     </row>
     <row r="9" spans="2:4" ht="74.25" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D9" s="35"/>
     </row>
     <row r="10" spans="2:4" ht="74.25" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D10" s="35"/>
     </row>
@@ -5287,55 +5820,55 @@
     </row>
     <row r="12" spans="2:4" ht="173.25" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="272.25" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
       <c r="C13" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D13" s="35"/>
     </row>
     <row r="14" spans="2:4" ht="74.25" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D14" s="35"/>
     </row>
     <row r="15" spans="2:4" ht="74.25" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D15" s="35"/>
     </row>
     <row r="16" spans="2:4" ht="74.25" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D16" s="35"/>
     </row>
     <row r="17" spans="2:4" ht="74.25" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D17" s="35"/>
     </row>
@@ -5346,10 +5879,10 @@
     </row>
     <row r="19" spans="2:4" ht="74.25" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D19" s="35"/>
     </row>
@@ -5360,24 +5893,24 @@
     </row>
     <row r="21" spans="2:4" ht="123.75" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D21" s="32" t="s">
         <v>212</v>
-      </c>
-      <c r="D21" s="32" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="123.75" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
@@ -5388,14 +5921,14 @@
     <row r="24" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B24" s="2"/>
       <c r="C24" s="36" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D24" s="35"/>
     </row>
     <row r="25" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B25" s="2"/>
       <c r="C25" s="36" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D25" s="35"/>
     </row>
@@ -5428,8 +5961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3DA9E24-77E2-413D-8C7E-FFAE0922047D}">
   <dimension ref="B3:D21"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5455,7 +5988,7 @@
         <v>37</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D4" s="3"/>
     </row>
@@ -5464,10 +5997,10 @@
         <v>38</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5480,7 +6013,7 @@
         <v>41</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D7" s="3"/>
     </row>
@@ -5489,25 +6022,25 @@
         <v>42</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>43</v>
+        <v>259</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D10" s="3"/>
     </row>
@@ -5516,7 +6049,7 @@
         <v>33</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>35</v>
@@ -5527,7 +6060,7 @@
         <v>34</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>35</v>
@@ -5535,24 +6068,24 @@
     </row>
     <row r="13" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="D13" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="D14" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5573,7 +6106,7 @@
     </row>
     <row r="17" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="3" t="s">
@@ -5615,7 +6148,7 @@
   <dimension ref="B3:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5644,7 +6177,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
@@ -5667,38 +6200,38 @@
     </row>
     <row r="7" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
@@ -5733,10 +6266,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06E65B66-6452-45A1-AB5A-A63AF65A2652}">
-  <dimension ref="B2:D22"/>
+  <dimension ref="B2:D25"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5754,36 +6287,36 @@
         <v>1</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B3" s="29"/>
       <c r="C3" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D3" s="24"/>
     </row>
     <row r="4" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B4" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B5" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
@@ -5793,24 +6326,24 @@
     </row>
     <row r="7" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B7" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B8" s="25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
@@ -5820,24 +6353,24 @@
     </row>
     <row r="10" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B10" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B11" s="25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
@@ -5847,83 +6380,104 @@
     </row>
     <row r="13" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B13" s="28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C13" s="23"/>
       <c r="D13" s="24"/>
     </row>
-    <row r="14" spans="2:4" ht="74.25" x14ac:dyDescent="0.2">
-      <c r="B14" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>219</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
-      <c r="B15" s="20"/>
+    <row r="14" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="B14" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="24"/>
+    </row>
+    <row r="15" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
+      <c r="B15" s="28" t="s">
+        <v>230</v>
+      </c>
       <c r="C15" s="23"/>
       <c r="D15" s="24"/>
     </row>
     <row r="16" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="C16" s="23"/>
+      <c r="D16" s="24"/>
+    </row>
+    <row r="17" spans="2:4" ht="74.25" x14ac:dyDescent="0.2">
+      <c r="B17" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="B18" s="20"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
+      <c r="B19" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="B20" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="C16" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="D16" s="27" t="s">
+      <c r="C20" s="23" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
-      <c r="B17" s="20" t="s">
+      <c r="D20" s="24"/>
+    </row>
+    <row r="21" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="B21" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C17" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="D17" s="24"/>
-    </row>
-    <row r="18" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
-      <c r="B18" s="28" t="s">
+      <c r="C21" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" s="24"/>
+    </row>
+    <row r="22" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="B22" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="C18" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
-      <c r="B19" s="28" t="s">
+      <c r="C22" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" s="24"/>
+    </row>
+    <row r="23" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="B23" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="D19" s="24"/>
-    </row>
-    <row r="20" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
-      <c r="B20" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="D20" s="27"/>
-    </row>
-    <row r="21" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
-      <c r="B21" s="20"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="24"/>
-    </row>
-    <row r="22" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
-      <c r="B22" s="25"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="27"/>
+      <c r="C23" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="27"/>
+    </row>
+    <row r="24" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="B24" s="20"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="24"/>
+    </row>
+    <row r="25" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="B25" s="25"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/docs/卡死你3000命令手册.xlsx
+++ b/docs/卡死你3000命令手册.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20368"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20370"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProgramData\kasini3000\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02490EB4-9F83-4C39-AF7C-ECCC4A748B30}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D1FF80-EEF9-475F-8134-08BA1448DA56}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6240" tabRatio="693" activeTab="4" xr2:uid="{99DAB3B6-FFCD-47B2-A6C4-D70D810330D7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6240" tabRatio="693" activeTab="7" xr2:uid="{99DAB3B6-FFCD-47B2-A6C4-D70D810330D7}"/>
   </bookViews>
   <sheets>
     <sheet name="安装升级" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="261">
   <si>
     <t>命令名</t>
   </si>
@@ -174,12 +174,6 @@
   </si>
   <si>
     <t>cs产生随机数.ps1</t>
-  </si>
-  <si>
-    <t>cs产生所有被控机旧密码并写入nodelist.ps1</t>
-  </si>
-  <si>
-    <t>zkj_s所有win被控机改密码_验证周期_改密码_验证_对调密码_写入时间戳.ps1</t>
   </si>
   <si>
     <t>bkj_linux_deny-sshhost4.ps1</t>
@@ -833,32 +827,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>别名=【</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>树懒</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>】。单线程+无并发=速度慢。前台顺序在被控机上依次运行，提交的脚本或代码，前台返回结果，主要用于调试。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">定时任务，默认使用进程运行，若想用线程，则修改【config.ps1】源码，$global:u库_线程级别_定时任务_启用 = $true </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1448,6 +1416,689 @@
   </si>
   <si>
     <t>返回 0.92之类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必须在cdip、cdg之后运行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+k-commit-rs.ps1的前题是kcd，即必须指定运行脚本的机子。再指定运行的脚本。
+-脚本文件名 'd:\主控机目录\脚本名.ps1'
+或
+-powershell代码块 { powershell代码 或d:\被控机目录\脚本名.ps1}
+二者之一。 
+-端口 22 #只对linux有效。并且端口绑定所有被控机组
+-全部传入参数 "'ab c',(get-date)"
+#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用逗号分隔的字符串，字符串外用单双引号包围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。脚本或代码块的参数
+-任务超时时间 [timespan]'00:10:00' 
+-备注 '每个备注尽量不同'
+-复制主控机node_script目录到被控机 $true</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能用途</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>独立使用命令：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>【ipaddress】--&gt;【目的ip地址】
+【port】--&gt;【端口】
+【user】--&gt;【用户名】
+【pwd】--&gt;【密码】
+【LiteralPath】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>主控机上的文件目录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+【Destination】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>被控机上的文件目录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+【Recurse】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>【ipaddress】--&gt;【目的ip地址】
+【port】--&gt;【端口】
+【user】--&gt;【用户名】
+【pwd】--&gt;【密码】
+【LiteralPath】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>被控机上的文件目录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+【Destination】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>主控机上的文件目录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+【Recurse】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>psed.ps1=ps找算替v3.15.ps1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查找-替换文本的，工具软件。手册在/docs/ps找算替_v3_readme.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\admin_gui\f发钉钉报警.ps1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\admin_gui\pic\Set-Wallpaper设定桌面墙纸.ps1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\admin_gui\bf播放音乐和视频.ps1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k_copyfrom_ip_port_w2l_user_expect_pwd.ps1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k_copyto_ip_port_w2l_user_expect_pwd.ps1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k_run_ip_port_w2l_user_expect_pwd.ps1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>【ipaddress】--&gt;【目的ip地址】
+【port】--&gt;【端口】
+【user】--&gt;【用户名】
+【pwd】--&gt;【密码】
+【LiteralPath】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>主控机上的文件目录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+【Destination】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>被控机上的文件目录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+【Recurse】
+【sudo】以root权限复制
+【timeout】超时
+【showwindow】显示窗口</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>【ipaddress】--&gt;【目的ip地址】
+【port】--&gt;【端口】
+【user】--&gt;【用户名】
+【pwd】--&gt;【密码】
+【LiteralPath】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>被控机上的文件目录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+【Destination】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>主控机上的文件目录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+【Recurse】
+【sudo】以root权限复制
+【timeout】超时
+【showwindow】显示窗口</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作用等同于【k_copyfrom_ip.ps1】用于从被控机向主控机复制文件。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作用等同于【k_copyto_ip.ps1】用于从主控机向被控机复制文件。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k_run_ip_port_winscp2bash_user_pwd.ps1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k_copyfrom_ip_port_winscp2bash_user_pwd.ps1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k_copyto_ip_port_winscp2bash_user_pwd.ps1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认是，连同子目录一起复制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>↑上面的命令，要求被控机上安装了powershell，并且在sshd文件中激活powershell。
+↓下面的命令，要求在主控机是win，上安装winscp模块，被控机要求bash即可。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【ipaddress】--&gt;【目的ip地址】
+【port】--&gt;【端口】
+【user】--&gt;【用户名】
+【pwd】--&gt;【密码】
+【command】--&gt;【单行shell命令】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从主控机linux到linux被控机，想要自动输入密码登录，需要手动编写ps1脚本，调用expect。
+或者依赖卡死你3000，做ssh-keyfile免密。
+或者用多个卡死你3000主控机。一个是linux，另一个是win。从win主控机上，即可自动输入密码。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">k_run_ip_port_l2l_user.ps1
+k_run_ip_port_w2l_user.ps1
+k_run_ip_port_w2w_user_pwd.ps1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不带有pwd的，需要手动输入密码。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">k_copyto_ip_port_l2l_user.ps1
+k_copyto_ip_port_w2l_user.ps1
+k_copyto_ip_port_w2w_user_pwd.ps1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不带有pwd的，需要手动输入密码。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">k_copyfrom_ip_port_l2l_user.ps1
+k_copyfrom_ip_port_w2l_user.ps1
+k_copyfrom_ip_port_w2w_user_pwd.ps1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不带有pwd的，需要手动输入密码。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只支持单行命令，不支持传参。有字符串级别的返回值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>作用等同于【k_copyfrom_ip.ps1】用于从被控机向主控机复制文件。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>多了2个功能：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+1从win到linux自动输入密码。
+2支持sudo提权。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">作用等同于【krun_ip.ps1】用于从主控机向被控机执行命令。多了2个功能：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1从win到linux自动输入密码。
+2支持sudo提权。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3不支持传参，没有返回值。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">作用等同于【k_copyto_ip.ps1】用于从主控机向被控机复制文件。多了2个功能：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1从win到linux自动输入密码。
+2支持sudo提权。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作用等同于【krun_ip.ps1】用于在被控机运行脚本，或命令块。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【ipaddress】--&gt;【目的ip地址】
+【port】--&gt;【端口】
+【user】--&gt;【用户名】
+【pwd】--&gt;【密码】
+【sudo】以root权限执行
+【timeout】超时
+【showwindow】显示窗口
+【file】主控机上的脚本文件名
+【ps1Command】ps1代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>【ipaddress】--&gt;【目的ip地址】
+【port】--&gt;【端口】
+【user】--&gt;【用户名】
+【pwd】--&gt;【密码】
+【LiteralPath】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>主控机上的文件目录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+【Destination】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>被控机上的文件目录</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>【ipaddress】--&gt;【目的ip地址】
+【port】--&gt;【端口】
+【user】--&gt;【用户名】
+【pwd】--&gt;【密码】
+【LiteralPath】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>被控机上的文件目录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+【Destination】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>主控机上的文件目录</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不依赖nodelist.csv。但需要手动输入【ip】【端口】【账户】【密码】等。用于脱离卡死你3000，临时使用。带有pwd的全可以顺序批量，不能并发批量。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gx更新主控机ssh秘钥2z.ps1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【ipaddress】--&gt;【目的ip地址】
+【port】--&gt;【端口】
+【user】--&gt;【用户名】
+【pwd】--&gt;【密码】
+【file】--&gt;【ps1脚本文件名】
+【scriptblock】--&gt;【powershell代码块】
+【allparameter】--&gt;【传入参数】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>别名=【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>会跑的狼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】。单线程+无并发=速度慢。前台顺序在被控机上依次运行，提交的脚本或代码，前台返回结果，主要用于调试。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs产生所有被控机旧密码并写入nodelist.ps1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zkj_s所有win被控机改密码_验证周期_改密码_验证_对调密码_写入时间戳.ps1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持下列参数 'win7','win8','win10','win2008r2','win2012r2','win2016','win2019','centos6','centos7','centos8','debian9','debian10','ubuntu1404','ubuntu1604','ubuntu1804','ubuntu2004','Amazon Linux 2','kylin v10','alpine','统信UOS服务器版'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1498,659 +2149,14 @@
         <charset val="134"/>
       </rPr>
       <t>。脚本或代码块的参数
--任务超时时间 [timespan]'01:00:00' 
+-任务超时时间 [timespan]'00:30:00' 
 -备注 '每个备注尽量不同'
 -复制主控机node_script目录到被控机 $true</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必须在cdip、cdg之后运行</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-k-commit-rs.ps1的前题是kcd，即必须指定运行脚本的机子。再指定运行的脚本。
--脚本文件名 'd:\主控机目录\脚本名.ps1'
-或
--powershell代码块 { powershell代码 或d:\被控机目录\脚本名.ps1}
-二者之一。 
--端口 22 #只对linux有效。并且端口绑定所有被控机组
--全部传入参数 "'ab c',(get-date)"
-#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>用逗号分隔的字符串，字符串外用单双引号包围</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。脚本或代码块的参数
--任务超时时间 [timespan]'00:10:00' 
--备注 '每个备注尽量不同'
--复制主控机node_script目录到被控机 $true</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能用途</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>独立使用命令：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【ipaddress】--&gt;【目的ip地址】
-【port】--&gt;【端口】
-【user】--&gt;【用户名】
-【pwd】--&gt;【密码】
-【file】--&gt;【ps1脚本文件名】
-【scriptblock】--&gt;【powershell代码块】
-【allparameter】--&gt;【全部传入参数】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>【ipaddress】--&gt;【目的ip地址】
-【port】--&gt;【端口】
-【user】--&gt;【用户名】
-【pwd】--&gt;【密码】
-【LiteralPath】</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>主控机上的文件目录</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-【Destination】</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>被控机上的文件目录</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-【Recurse】</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>【ipaddress】--&gt;【目的ip地址】
-【port】--&gt;【端口】
-【user】--&gt;【用户名】
-【pwd】--&gt;【密码】
-【LiteralPath】</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>被控机上的文件目录</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-【Destination】</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>主控机上的文件目录</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-【Recurse】</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>psed.ps1=ps找算替v3.15.ps1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查找-替换文本的，工具软件。手册在/docs/ps找算替_v3_readme.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\admin_gui\f发钉钉报警.ps1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\admin_gui\pic\Set-Wallpaper设定桌面墙纸.ps1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\admin_gui\bf播放音乐和视频.ps1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>k_copyfrom_ip_port_w2l_user_expect_pwd.ps1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>k_copyto_ip_port_w2l_user_expect_pwd.ps1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>k_run_ip_port_w2l_user_expect_pwd.ps1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>【ipaddress】--&gt;【目的ip地址】
-【port】--&gt;【端口】
-【user】--&gt;【用户名】
-【pwd】--&gt;【密码】
-【LiteralPath】</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>主控机上的文件目录</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-【Destination】</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>被控机上的文件目录</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-【Recurse】
-【sudo】以root权限复制
-【timeout】超时
-【showwindow】显示窗口</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>【ipaddress】--&gt;【目的ip地址】
-【port】--&gt;【端口】
-【user】--&gt;【用户名】
-【pwd】--&gt;【密码】
-【LiteralPath】</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>被控机上的文件目录</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-【Destination】</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>主控机上的文件目录</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-【Recurse】
-【sudo】以root权限复制
-【timeout】超时
-【showwindow】显示窗口</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作用等同于【k_copyfrom_ip.ps1】用于从被控机向主控机复制文件。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作用等同于【k_copyto_ip.ps1】用于从主控机向被控机复制文件。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>k_run_ip_port_winscp2bash_user_pwd.ps1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>k_copyfrom_ip_port_winscp2bash_user_pwd.ps1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>k_copyto_ip_port_winscp2bash_user_pwd.ps1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认是，连同子目录一起复制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>↑上面的命令，要求被控机上安装了powershell，并且在sshd文件中激活powershell。
-↓下面的命令，要求在主控机是win，上安装winscp模块，被控机要求bash即可。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【ipaddress】--&gt;【目的ip地址】
-【port】--&gt;【端口】
-【user】--&gt;【用户名】
-【pwd】--&gt;【密码】
-【command】--&gt;【单行shell命令】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从主控机linux到linux被控机，想要自动输入密码登录，需要手动编写ps1脚本，调用expect。
-或者依赖卡死你3000，做ssh-keyfile免密。
-或者用多个卡死你3000主控机。一个是linux，另一个是win。从win主控机上，即可自动输入密码。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">k_run_ip_port_l2l_user.ps1
-k_run_ip_port_w2l_user.ps1
-k_run_ip_port_w2w_user_pwd.ps1
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>不带有pwd的，需要手动输入密码。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">k_copyto_ip_port_l2l_user.ps1
-k_copyto_ip_port_w2l_user.ps1
-k_copyto_ip_port_w2w_user_pwd.ps1
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>不带有pwd的，需要手动输入密码。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">k_copyfrom_ip_port_l2l_user.ps1
-k_copyfrom_ip_port_w2l_user.ps1
-k_copyfrom_ip_port_w2w_user_pwd.ps1
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>不带有pwd的，需要手动输入密码。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只支持单行命令，不支持传参。有字符串级别的返回值。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>作用等同于【k_copyfrom_ip.ps1】用于从被控机向主控机复制文件。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>多了2个功能：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-1从win到linux自动输入密码。
-2支持sudo提权。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">作用等同于【krun_ip.ps1】用于从主控机向被控机执行命令。多了2个功能：
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1从win到linux自动输入密码。
-2支持sudo提权。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3不支持传参，没有返回值。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">作用等同于【k_copyto_ip.ps1】用于从主控机向被控机复制文件。多了2个功能：
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1从win到linux自动输入密码。
-2支持sudo提权。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作用等同于【krun_ip.ps1】用于在被控机运行脚本，或命令块。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【ipaddress】--&gt;【目的ip地址】
-【port】--&gt;【端口】
-【user】--&gt;【用户名】
-【pwd】--&gt;【密码】
-【sudo】以root权限执行
-【timeout】超时
-【showwindow】显示窗口
-【file】主控机上的脚本文件名
-【ps1Command】ps1代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>【ipaddress】--&gt;【目的ip地址】
-【port】--&gt;【端口】
-【user】--&gt;【用户名】
-【pwd】--&gt;【密码】
-【LiteralPath】</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>主控机上的文件目录</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-【Destination】</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>被控机上的文件目录</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>【ipaddress】--&gt;【目的ip地址】
-【port】--&gt;【端口】
-【user】--&gt;【用户名】
-【pwd】--&gt;【密码】
-【LiteralPath】</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>被控机上的文件目录</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-【Destination】</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>主控机上的文件目录</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不依赖nodelist.csv。但需要手动输入【ip】【端口】【账户】【密码】等。用于脱离卡死你3000，临时使用。带有pwd的全可以顺序批量，不能并发批量。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支持下列参数 'win7','win8','win10','win2008r2','win2012r2','win2016','win2019','centos6','centos7','centos8','debian9','debian10','ubuntu1404','ubuntu1604','ubuntu1804','ubuntu2004','Amazon Linux 2','kylin v10','alpine'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gx更新主控机ssh秘钥2z.ps1</t>
+    <t>\master_script\ptelnet_v1.01.ps1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4656,18 +4662,18 @@
     </row>
     <row r="3" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B4" s="30" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C4" s="30"/>
       <c r="D4" s="30"/>
@@ -4675,21 +4681,21 @@
     <row r="5" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
       <c r="C5" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4699,20 +4705,20 @@
     </row>
     <row r="8" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B8" s="30" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C8" s="30"/>
       <c r="D8" s="30"/>
     </row>
     <row r="9" spans="2:4" ht="74.25" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4722,21 +4728,21 @@
     </row>
     <row r="11" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B11" s="30" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C11" s="30"/>
       <c r="D11" s="30"/>
     </row>
     <row r="12" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="3"/>
@@ -4748,31 +4754,31 @@
     </row>
     <row r="15" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B15" s="30" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C15" s="30"/>
       <c r="D15" s="30"/>
     </row>
     <row r="16" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="48" customHeight="1" x14ac:dyDescent="0.2">
@@ -4782,31 +4788,31 @@
     </row>
     <row r="19" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B19" s="30" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C19" s="30"/>
       <c r="D19" s="30"/>
     </row>
     <row r="20" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
@@ -4886,16 +4892,16 @@
     <row r="4" spans="2:4" ht="148.5" x14ac:dyDescent="0.2">
       <c r="B4" s="13"/>
       <c r="C4" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D4" s="15"/>
     </row>
     <row r="5" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>35</v>
@@ -4903,69 +4909,69 @@
     </row>
     <row r="6" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="2:4" ht="74.25" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D13" s="3"/>
     </row>
@@ -5017,14 +5023,14 @@
         <v>1</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="99" x14ac:dyDescent="0.2">
       <c r="B3" s="29"/>
       <c r="C3" s="23"/>
       <c r="D3" s="22" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
@@ -5036,53 +5042,53 @@
       <c r="B5" s="20"/>
       <c r="C5" s="21"/>
       <c r="D5" s="22" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B6" s="20"/>
       <c r="C6" s="21"/>
       <c r="D6" s="22" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B7" s="20"/>
       <c r="C7" s="23"/>
       <c r="D7" s="24" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B8" s="20"/>
       <c r="C8" s="21"/>
       <c r="D8" s="22" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
       <c r="D9" s="22" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B10" s="28"/>
       <c r="C10" s="23"/>
       <c r="D10" s="24" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="74.25" x14ac:dyDescent="0.2">
       <c r="B11" s="28" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C11" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="D11" s="24" t="s">
         <v>161</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
@@ -5092,13 +5098,13 @@
     </row>
     <row r="13" spans="2:4" ht="74.25" x14ac:dyDescent="0.2">
       <c r="B13" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="D13" s="24" t="s">
         <v>162</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
@@ -5121,7 +5127,7 @@
   <dimension ref="B3:D20"/>
   <sheetViews>
     <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5144,14 +5150,14 @@
     </row>
     <row r="4" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="3"/>
     </row>
     <row r="5" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B5" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="3"/>
@@ -5174,13 +5180,13 @@
     </row>
     <row r="8" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
@@ -5191,7 +5197,7 @@
         <v>24</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
@@ -5202,7 +5208,7 @@
         <v>25</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="74.25" x14ac:dyDescent="0.2">
@@ -5213,10 +5219,10 @@
         <v>26</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" ht="148.5" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="173.25" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>15</v>
       </c>
@@ -5273,13 +5279,13 @@
     </row>
     <row r="17" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
@@ -5289,10 +5295,10 @@
     </row>
     <row r="19" spans="2:4" ht="99" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>32</v>
@@ -5342,7 +5348,7 @@
     <row r="4" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B4" s="10"/>
       <c r="C4" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D4" s="11"/>
     </row>
@@ -5351,10 +5357,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
@@ -5367,21 +5373,21 @@
         <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="99" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
@@ -5403,7 +5409,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E04B6D6-8A0D-447F-9E16-D0B486F8063D}">
   <dimension ref="B2:E12"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -5423,10 +5429,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="198" x14ac:dyDescent="0.2">
@@ -5434,75 +5440,75 @@
         <v>2</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E3" s="33"/>
     </row>
     <row r="4" spans="2:5" ht="74.25" x14ac:dyDescent="0.2">
       <c r="B4" s="20"/>
       <c r="C4" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="32"/>
     </row>
     <row r="5" spans="2:5" ht="247.5" x14ac:dyDescent="0.2">
       <c r="B5" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>146</v>
+        <v>255</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="396" x14ac:dyDescent="0.2">
       <c r="B6" s="20" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>220</v>
+        <v>259</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="123.75" x14ac:dyDescent="0.2">
       <c r="B7" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="D7" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="C7" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>109</v>
-      </c>
       <c r="E7" s="33" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="123.75" x14ac:dyDescent="0.2">
       <c r="B8" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="D8" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="C8" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>110</v>
-      </c>
       <c r="E8" s="32" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="24.75" x14ac:dyDescent="0.2">
@@ -5513,44 +5519,44 @@
     </row>
     <row r="10" spans="2:5" ht="396" x14ac:dyDescent="0.2">
       <c r="B10" s="20" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="123.75" x14ac:dyDescent="0.2">
       <c r="B11" s="20" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="123.75" x14ac:dyDescent="0.2">
       <c r="B12" s="21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -5567,8 +5573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA5960FD-8EC2-4E9F-A689-6D938F10DD67}">
   <dimension ref="B2:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:D14"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5584,130 +5590,130 @@
         <v>23</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="37" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D3" s="39"/>
     </row>
     <row r="4" spans="2:4" ht="173.25" x14ac:dyDescent="0.2">
       <c r="B4" s="32" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>224</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="173.25" x14ac:dyDescent="0.2">
       <c r="B5" s="33" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="173.25" x14ac:dyDescent="0.2">
       <c r="B6" s="32" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="247.5" x14ac:dyDescent="0.2">
       <c r="B7" s="33" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="247.5" x14ac:dyDescent="0.2">
       <c r="B8" s="32" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="222.75" x14ac:dyDescent="0.2">
       <c r="B9" s="33" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="40" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C10" s="41"/>
       <c r="D10" s="41"/>
     </row>
     <row r="11" spans="2:4" ht="123.75" x14ac:dyDescent="0.2">
       <c r="B11" s="32" t="s">
+        <v>234</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="D11" s="32" t="s">
         <v>239</v>
-      </c>
-      <c r="C11" s="32" t="s">
-        <v>249</v>
-      </c>
-      <c r="D11" s="32" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="148.5" x14ac:dyDescent="0.2">
       <c r="B12" s="33" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="148.5" x14ac:dyDescent="0.2">
       <c r="B13" s="32" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="40" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C14" s="41"/>
       <c r="D14" s="41"/>
@@ -5747,69 +5753,69 @@
         <v>9</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="272.25" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="346.5" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
       <c r="C5" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D5" s="35"/>
     </row>
     <row r="6" spans="2:4" ht="74.25" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D6" s="35"/>
     </row>
     <row r="7" spans="2:4" ht="74.25" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D7" s="35"/>
     </row>
     <row r="8" spans="2:4" ht="74.25" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D8" s="35"/>
     </row>
     <row r="9" spans="2:4" ht="74.25" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D9" s="35"/>
     </row>
     <row r="10" spans="2:4" ht="74.25" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D10" s="35"/>
     </row>
@@ -5820,55 +5826,55 @@
     </row>
     <row r="12" spans="2:4" ht="173.25" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="272.25" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
       <c r="C13" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D13" s="35"/>
     </row>
     <row r="14" spans="2:4" ht="74.25" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D14" s="35"/>
     </row>
     <row r="15" spans="2:4" ht="74.25" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D15" s="35"/>
     </row>
     <row r="16" spans="2:4" ht="74.25" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="D16" s="35"/>
     </row>
     <row r="17" spans="2:4" ht="74.25" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D17" s="35"/>
     </row>
@@ -5879,10 +5885,10 @@
     </row>
     <row r="19" spans="2:4" ht="74.25" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D19" s="35"/>
     </row>
@@ -5893,24 +5899,24 @@
     </row>
     <row r="21" spans="2:4" ht="123.75" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="123.75" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
@@ -5921,14 +5927,14 @@
     <row r="24" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B24" s="2"/>
       <c r="C24" s="36" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D24" s="35"/>
     </row>
     <row r="25" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B25" s="2"/>
       <c r="C25" s="36" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D25" s="35"/>
     </row>
@@ -5962,7 +5968,7 @@
   <dimension ref="B3:D21"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5985,22 +5991,22 @@
     </row>
     <row r="4" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>37</v>
+        <v>256</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D4" s="3"/>
     </row>
     <row r="5" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>38</v>
+        <v>257</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6010,37 +6016,37 @@
     </row>
     <row r="7" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D10" s="3"/>
     </row>
@@ -6049,7 +6055,7 @@
         <v>33</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>35</v>
@@ -6060,7 +6066,7 @@
         <v>34</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>35</v>
@@ -6068,24 +6074,24 @@
     </row>
     <row r="13" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6098,7 +6104,7 @@
         <v>36</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>35</v>
@@ -6106,7 +6112,7 @@
     </row>
     <row r="17" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="3" t="s">
@@ -6147,8 +6153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BCF84EE-A6D5-4D87-93BF-A5A95BE4D210}">
   <dimension ref="B3:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6177,7 +6183,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
@@ -6200,43 +6206,47 @@
     </row>
     <row r="7" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
-      <c r="B11" s="2"/>
-      <c r="C11" s="1"/>
+      <c r="B11" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
@@ -6287,36 +6297,36 @@
         <v>1</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B3" s="29"/>
       <c r="C3" s="24" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D3" s="24"/>
     </row>
     <row r="4" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B4" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B5" s="25" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
@@ -6326,24 +6336,24 @@
     </row>
     <row r="7" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B7" s="20" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B8" s="25" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
@@ -6353,24 +6363,24 @@
     </row>
     <row r="10" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B10" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B11" s="25" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
@@ -6380,41 +6390,41 @@
     </row>
     <row r="13" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B13" s="28" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C13" s="23"/>
       <c r="D13" s="24"/>
     </row>
     <row r="14" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B14" s="28" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C14" s="23"/>
       <c r="D14" s="24"/>
     </row>
     <row r="15" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B15" s="28" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C15" s="23"/>
       <c r="D15" s="24"/>
     </row>
     <row r="16" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B16" s="28" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C16" s="23"/>
       <c r="D16" s="24"/>
     </row>
     <row r="17" spans="2:4" ht="74.25" x14ac:dyDescent="0.2">
       <c r="B17" s="25" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
@@ -6424,48 +6434,48 @@
     </row>
     <row r="19" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B19" s="25" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B20" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B21" s="28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B22" s="28" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="23" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B23" s="25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D23" s="27"/>
     </row>

--- a/docs/卡死你3000命令手册.xlsx
+++ b/docs/卡死你3000命令手册.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20370"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20371"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProgramData\kasini3000\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D1FF80-EEF9-475F-8134-08BA1448DA56}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5EDFB92-324C-4F07-9562-94AD17A5FF6C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6240" tabRatio="693" activeTab="7" xr2:uid="{99DAB3B6-FFCD-47B2-A6C4-D70D810330D7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6240" tabRatio="693" activeTab="4" xr2:uid="{99DAB3B6-FFCD-47B2-A6C4-D70D810330D7}"/>
   </bookViews>
   <sheets>
     <sheet name="安装升级" sheetId="6" r:id="rId1"/>
@@ -1312,20 +1312,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[String]$LiteralPath,源目录（位于主控机）
-[String]$Path,源目录
-[String]$Destination,目的目录（位于被控机）
-[Switch]$Recurse,复制所有子目录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">	[String]$LiteralPath,（位于被控机）
-	[String]$Path,
-	[String]$Destination,（位于主控机）
-	[Switch]$Recurse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>从福报数据库获取最后n个任务结果输出，以list列表形式显示。n默认为5。
 ul.ps1 -最后n个输出 20 -备注 '每个备注尽量不同'</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1481,110 +1467,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>【ipaddress】--&gt;【目的ip地址】
-【port】--&gt;【端口】
-【user】--&gt;【用户名】
-【pwd】--&gt;【密码】
-【LiteralPath】</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>主控机上的文件目录</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-【Destination】</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>被控机上的文件目录</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-【Recurse】</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>【ipaddress】--&gt;【目的ip地址】
-【port】--&gt;【端口】
-【user】--&gt;【用户名】
-【pwd】--&gt;【密码】
-【LiteralPath】</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>被控机上的文件目录</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-【Destination】</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>主控机上的文件目录</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-【Recurse】</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>psed.ps1=ps找算替v3.15.ps1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1617,116 +1499,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>【ipaddress】--&gt;【目的ip地址】
-【port】--&gt;【端口】
-【user】--&gt;【用户名】
-【pwd】--&gt;【密码】
-【LiteralPath】</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>主控机上的文件目录</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-【Destination】</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>被控机上的文件目录</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-【Recurse】
-【sudo】以root权限复制
-【timeout】超时
-【showwindow】显示窗口</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>【ipaddress】--&gt;【目的ip地址】
-【port】--&gt;【端口】
-【user】--&gt;【用户名】
-【pwd】--&gt;【密码】
-【LiteralPath】</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>被控机上的文件目录</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-【Destination】</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>主控机上的文件目录</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-【Recurse】
-【sudo】以root权限复制
-【timeout】超时
-【showwindow】显示窗口</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>作用等同于【k_copyfrom_ip.ps1】用于从被控机向主控机复制文件。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1748,11 +1520,6 @@
   </si>
   <si>
     <t>默认是，连同子目录一起复制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>↑上面的命令，要求被控机上安装了powershell，并且在sshd文件中激活powershell。
-↓下面的命令，要求在主控机是win，上安装winscp模块，被控机要求bash即可。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1767,96 +1534,6 @@
     <t>从主控机linux到linux被控机，想要自动输入密码登录，需要手动编写ps1脚本，调用expect。
 或者依赖卡死你3000，做ssh-keyfile免密。
 或者用多个卡死你3000主控机。一个是linux，另一个是win。从win主控机上，即可自动输入密码。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">k_run_ip_port_l2l_user.ps1
-k_run_ip_port_w2l_user.ps1
-k_run_ip_port_w2w_user_pwd.ps1
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>不带有pwd的，需要手动输入密码。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">k_copyto_ip_port_l2l_user.ps1
-k_copyto_ip_port_w2l_user.ps1
-k_copyto_ip_port_w2w_user_pwd.ps1
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>不带有pwd的，需要手动输入密码。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">k_copyfrom_ip_port_l2l_user.ps1
-k_copyfrom_ip_port_w2l_user.ps1
-k_copyfrom_ip_port_w2w_user_pwd.ps1
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>不带有pwd的，需要手动输入密码。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2046,21 +1723,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>不依赖nodelist.csv。但需要手动输入【ip】【端口】【账户】【密码】等。用于脱离卡死你3000，临时使用。带有pwd的全可以顺序批量，不能并发批量。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>gx更新主控机ssh秘钥2z.ps1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【ipaddress】--&gt;【目的ip地址】
-【port】--&gt;【端口】
-【user】--&gt;【用户名】
-【pwd】--&gt;【密码】
-【file】--&gt;【ps1脚本文件名】
-【scriptblock】--&gt;【powershell代码块】
-【allparameter】--&gt;【传入参数】</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2157,6 +1820,352 @@
   </si>
   <si>
     <t>\master_script\ptelnet_v1.01.ps1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">k_run_ip_port_l2l_user.ps1
+k_run_ip_port_w2l_user.ps1
+k_run_ip_port_w2w_user_pwd.ps1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不带有pwd的，需要手动输入密码。
+末尾是2l的，有参数：ssh_key_file_path</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">k_copyto_ip_port_l2l_user.ps1
+k_copyto_ip_port_w2l_user.ps1
+k_copyto_ip_port_w2w_user_pwd.ps1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不带有pwd的，需要手动输入密码。
+末尾是2l的，有参数：ssh_key_file_path</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">k_copyfrom_ip_port_l2l_user.ps1
+k_copyfrom_ip_port_w2l_user.ps1
+k_copyfrom_ip_port_w2w_user_pwd.ps1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不带有pwd的，需要手动输入密码。
+末尾是2l的，有参数：ssh_key_file_path</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不依赖nodelist.csv。但需要手动输入【ip】【端口】【账户】【密码】等。用于脱离卡死你3000，临时使用。带有pwd的全可以顺序批量，不能并发批量。linux被控机需安装powershell，并且在sshd文件中激活powershell。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>↓下面的命令，要求在主控机是win，上安装winscp模块，被控机要求bash即可。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[String]$LiteralPath,源目录（位于主控机）
+[String]$Path,源目录
+[String]$Destination,目的目录（位于被控机）
+[Switch]$Recurse,复制所有子目录
+[string[]]$Exclude,排除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[String]$LiteralPath,（位于被控机）
+[String]$Path,
+[String]$Destination,（位于主控机）
+[Switch]$Recurse
+[string[]]$Exclude,排除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【ipaddress】--&gt;【目的ip地址】
+【port】--&gt;【端口】
+【user】--&gt;【用户名】
+【pwd】--&gt;【密码】
+【file】--&gt;【ps1脚本文件名】
+【scriptblock】--&gt;【powershell代码块】
+【allparameter】--&gt;【传入参数】
+【Exclude】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>【ipaddress】--&gt;【目的ip地址】
+【port】--&gt;【端口】
+【user】--&gt;【用户名】
+【pwd】--&gt;【密码】
+【LiteralPath】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>主控机上的文件目录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+【Destination】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>被控机上的文件目录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+【Recurse】
+【Exclude】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>【ipaddress】--&gt;【目的ip地址】
+【port】--&gt;【端口】
+【user】--&gt;【用户名】
+【pwd】--&gt;【密码】
+【LiteralPath】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>被控机上的文件目录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+【Destination】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>主控机上的文件目录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+【Recurse】
+【Exclude】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>【ipaddress】--&gt;【目的ip地址】
+【port】--&gt;【端口】
+【user】--&gt;【用户名】
+【pwd】--&gt;【密码】
+【LiteralPath】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>被控机上的文件目录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+【Destination】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>主控机上的文件目录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+【Recurse】
+【sudo】以root权限复制
+【timeout】超时
+【showwindow】显示窗口
+【Exclude】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>【ipaddress】--&gt;【目的ip地址】
+【port】--&gt;【端口】
+【user】--&gt;【用户名】
+【pwd】--&gt;【密码】
+【LiteralPath】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>主控机上的文件目录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+【Destination】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>被控机上的文件目录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+【Recurse】
+【sudo】以root权限复制
+【timeout】超时
+【showwindow】显示窗口
+【Exclude】</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4695,7 +4704,7 @@
         <v>183</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4940,7 +4949,7 @@
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
@@ -4963,15 +4972,15 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D13" s="3"/>
     </row>
@@ -5230,7 +5239,7 @@
         <v>31</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
@@ -5323,8 +5332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A2EB81D-6C74-4CC5-B28F-5D675FA16AE3}">
   <dimension ref="B3:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5348,11 +5357,11 @@
     <row r="4" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B4" s="10"/>
       <c r="C4" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D4" s="11"/>
     </row>
-    <row r="5" spans="2:4" ht="123.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:4" ht="148.5" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>20</v>
       </c>
@@ -5360,7 +5369,7 @@
         <v>193</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>205</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
@@ -5368,7 +5377,7 @@
       <c r="C6" s="1"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="2:4" ht="99" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:4" ht="123.75" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
@@ -5376,7 +5385,7 @@
         <v>194</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>206</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="99" x14ac:dyDescent="0.2">
@@ -5460,10 +5469,10 @@
         <v>74</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E5" s="33" t="s">
         <v>201</v>
@@ -5477,7 +5486,7 @@
         <v>134</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="E6" s="32" t="s">
         <v>202</v>
@@ -5494,7 +5503,7 @@
         <v>107</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="123.75" x14ac:dyDescent="0.2">
@@ -5508,7 +5517,7 @@
         <v>108</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="24.75" x14ac:dyDescent="0.2">
@@ -5525,7 +5534,7 @@
         <v>191</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E10" s="32" t="s">
         <v>202</v>
@@ -5542,7 +5551,7 @@
         <v>107</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="123.75" x14ac:dyDescent="0.2">
@@ -5556,7 +5565,7 @@
         <v>108</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -5573,8 +5582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA5960FD-8EC2-4E9F-A689-6D938F10DD67}">
   <dimension ref="B2:D14"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5590,130 +5599,130 @@
         <v>23</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D2" s="34" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:4" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="37" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C3" s="38" t="s">
         <v>252</v>
       </c>
       <c r="D3" s="39"/>
     </row>
-    <row r="4" spans="2:4" ht="173.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:4" ht="198" x14ac:dyDescent="0.2">
       <c r="B4" s="32" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" ht="173.25" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="198" x14ac:dyDescent="0.2">
       <c r="B5" s="33" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" ht="173.25" x14ac:dyDescent="0.2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="198" x14ac:dyDescent="0.2">
       <c r="B6" s="32" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" ht="247.5" x14ac:dyDescent="0.2">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="272.25" x14ac:dyDescent="0.2">
       <c r="B7" s="33" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" ht="247.5" x14ac:dyDescent="0.2">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="272.25" x14ac:dyDescent="0.2">
       <c r="B8" s="32" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>230</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="222.75" x14ac:dyDescent="0.2">
       <c r="B9" s="33" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="40" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="C10" s="41"/>
       <c r="D10" s="41"/>
     </row>
     <row r="11" spans="2:4" ht="123.75" x14ac:dyDescent="0.2">
       <c r="B11" s="32" t="s">
+        <v>228</v>
+      </c>
+      <c r="C11" s="32" t="s">
         <v>234</v>
       </c>
-      <c r="C11" s="32" t="s">
-        <v>244</v>
-      </c>
       <c r="D11" s="32" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="148.5" x14ac:dyDescent="0.2">
       <c r="B12" s="33" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="148.5" x14ac:dyDescent="0.2">
       <c r="B13" s="32" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="40" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C14" s="41"/>
       <c r="D14" s="41"/>
@@ -5902,10 +5911,10 @@
         <v>103</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D21" s="32" t="s">
         <v>207</v>
-      </c>
-      <c r="D21" s="32" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="123.75" x14ac:dyDescent="0.2">
@@ -5913,10 +5922,10 @@
         <v>104</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
@@ -5967,8 +5976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3DA9E24-77E2-413D-8C7E-FFAE0922047D}">
   <dimension ref="B3:D21"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5991,7 +6000,7 @@
     </row>
     <row r="4" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>66</v>
@@ -6000,7 +6009,7 @@
     </row>
     <row r="5" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>66</v>
@@ -6034,7 +6043,7 @@
     </row>
     <row r="9" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>60</v>
@@ -6080,7 +6089,7 @@
         <v>50</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
@@ -6091,7 +6100,7 @@
         <v>52</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6153,7 +6162,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BCF84EE-A6D5-4D87-93BF-A5A95BE4D210}">
   <dimension ref="B3:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -6242,7 +6251,7 @@
     </row>
     <row r="11" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>35</v>
@@ -6397,21 +6406,21 @@
     </row>
     <row r="14" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B14" s="28" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C14" s="23"/>
       <c r="D14" s="24"/>
     </row>
     <row r="15" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B15" s="28" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C15" s="23"/>
       <c r="D15" s="24"/>
     </row>
     <row r="16" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B16" s="28" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C16" s="23"/>
       <c r="D16" s="24"/>
@@ -6421,7 +6430,7 @@
         <v>78</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D17" s="27" t="s">
         <v>79</v>

--- a/docs/卡死你3000命令手册.xlsx
+++ b/docs/卡死你3000命令手册.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20371"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20379"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProgramData\kasini3000\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5EDFB92-324C-4F07-9562-94AD17A5FF6C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C76570D-3932-441C-82AC-7D63BF232B10}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6240" tabRatio="693" activeTab="4" xr2:uid="{99DAB3B6-FFCD-47B2-A6C4-D70D810330D7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6240" tabRatio="693" activeTab="2" xr2:uid="{99DAB3B6-FFCD-47B2-A6C4-D70D810330D7}"/>
   </bookViews>
   <sheets>
     <sheet name="安装升级" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="284">
   <si>
     <t>命令名</t>
   </si>
@@ -2166,6 +2166,103 @@
 【showwindow】显示窗口
 【Exclude】</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\admin_gui\qwin右下角气球报警.ps1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k_rsync_winfromlinux.ps1</t>
+  </si>
+  <si>
+    <t>k_rsync_wintolinux.ps1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[String]$Path,被控机源目录
+[String]$Destination,主控机目标目录
+[Alias("ipaddress")][String]$被控机ip地址,
+[Switch]$Recurse,
+[Switch]$Delete,
+[Alias("port")][int]$端口 = 22,
+[Switch]$debugging</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[String]$Path,主控机源目录
+[String]$Destination,被控机目标目录
+[Alias("ipaddress")][String]$被控机ip地址,
+[Switch]$Recurse,
+[Switch]$Delete,
+[Alias("port")][int]$端口 = 22,
+[Switch]$debugging</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>↓下面的命令，要求在主控机是win，被控机要求linux的bash即可。被控机需要安装rsync。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k_download_from_ftpd_win.ps1</t>
+  </si>
+  <si>
+    <t>k_upload2ftpd_win.ps1</t>
+  </si>
+  <si>
+    <t>k_sync_ftpd2l_win.ps1</t>
+  </si>
+  <si>
+    <t>k_sync_l2ftpd_win.ps1</t>
+  </si>
+  <si>
+    <t>ftp下载n个文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ftp上传n个文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ftp下载，同步整个目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ftp上传，同步整个目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k_sync_sftpd2l_win.ps1</t>
+  </si>
+  <si>
+    <t>k_sync_l2sftpd_win.ps1</t>
+  </si>
+  <si>
+    <t>sftp下载，同步整个目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sftp上传，同步整个目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k_upload2httpd.ps1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http上传，1个文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sftp：↓下面的命令，要求在主控机是win。依赖winscp模块。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ftp：↓下面的命令，要求在主控机是win。依赖winscp模块。若主控机是linux，请使用lftp命令。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2265,7 +2362,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -2384,6 +2481,81 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2393,7 +2565,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2508,16 +2680,34 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4325,8 +4515,8 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{49F70CF6-5CF8-469A-9B1A-D67E52AB52EA}" name="表10_6" displayName="表10_6" ref="B2:D25" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18" totalsRowBorderDxfId="17">
-  <autoFilter ref="B2:D25" xr:uid="{1775A49D-43C1-4A83-A62A-206DB5946BFD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{49F70CF6-5CF8-469A-9B1A-D67E52AB52EA}" name="表10_6" displayName="表10_6" ref="B2:D26" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18" totalsRowBorderDxfId="17">
+  <autoFilter ref="B2:D26" xr:uid="{1775A49D-43C1-4A83-A62A-206DB5946BFD}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{A8E655E8-2506-4354-8DFB-AF6A92FA36C1}" name="命令名" dataDxfId="16"/>
     <tableColumn id="2" xr3:uid="{A8D0AE82-A14A-411C-9E33-82F843B05114}" name="功能用途" dataDxfId="15"/>
@@ -5330,15 +5520,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A2EB81D-6C74-4CC5-B28F-5D675FA16AE3}">
-  <dimension ref="B3:D9"/>
+  <dimension ref="B3:D26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.625" customWidth="1"/>
+    <col min="2" max="2" width="39.375" customWidth="1"/>
     <col min="3" max="3" width="73" customWidth="1"/>
     <col min="4" max="4" width="63.25" bestFit="1" customWidth="1"/>
   </cols>
@@ -5404,7 +5594,127 @@
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
     </row>
+    <row r="10" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="44" t="s">
+        <v>266</v>
+      </c>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+    </row>
+    <row r="11" spans="2:4" ht="173.25" x14ac:dyDescent="0.2">
+      <c r="B11" s="39" t="s">
+        <v>262</v>
+      </c>
+      <c r="C11" s="38"/>
+      <c r="D11" s="40" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="173.25" x14ac:dyDescent="0.2">
+      <c r="B12" s="41" t="s">
+        <v>263</v>
+      </c>
+      <c r="C12" s="42"/>
+      <c r="D12" s="43" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="44" t="s">
+        <v>283</v>
+      </c>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+    </row>
+    <row r="15" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
+      <c r="B15" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="D15" s="40"/>
+    </row>
+    <row r="16" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="B16" s="41" t="s">
+        <v>268</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>272</v>
+      </c>
+      <c r="D16" s="43"/>
+    </row>
+    <row r="17" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="B17" s="39" t="s">
+        <v>269</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>273</v>
+      </c>
+      <c r="D17" s="40"/>
+    </row>
+    <row r="18" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="B18" s="41" t="s">
+        <v>270</v>
+      </c>
+      <c r="C18" s="43" t="s">
+        <v>274</v>
+      </c>
+      <c r="D18" s="43"/>
+    </row>
+    <row r="20" spans="2:4" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="44" t="s">
+        <v>282</v>
+      </c>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+    </row>
+    <row r="21" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="B21" s="39" t="s">
+        <v>275</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="D21" s="40"/>
+    </row>
+    <row r="22" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="B22" s="41" t="s">
+        <v>276</v>
+      </c>
+      <c r="C22" s="43" t="s">
+        <v>278</v>
+      </c>
+      <c r="D22" s="43"/>
+    </row>
+    <row r="24" spans="2:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="44" t="s">
+        <v>279</v>
+      </c>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+    </row>
+    <row r="25" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="B25" s="39"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="40"/>
+    </row>
+    <row r="26" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="B26" s="43" t="s">
+        <v>280</v>
+      </c>
+      <c r="C26" s="43" t="s">
+        <v>281</v>
+      </c>
+      <c r="D26" s="43"/>
+    </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B24:D24"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5582,8 +5892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA5960FD-8EC2-4E9F-A689-6D938F10DD67}">
   <dimension ref="B2:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5609,10 +5919,10 @@
       <c r="B3" s="37" t="s">
         <v>217</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="46" t="s">
         <v>252</v>
       </c>
-      <c r="D3" s="39"/>
+      <c r="D3" s="47"/>
     </row>
     <row r="4" spans="2:4" ht="198" x14ac:dyDescent="0.2">
       <c r="B4" s="32" t="s">
@@ -5681,11 +5991,11 @@
       </c>
     </row>
     <row r="10" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="44" t="s">
         <v>253</v>
       </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
     </row>
     <row r="11" spans="2:4" ht="123.75" x14ac:dyDescent="0.2">
       <c r="B11" s="32" t="s">
@@ -5721,11 +6031,11 @@
       </c>
     </row>
     <row r="14" spans="2:4" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="44" t="s">
         <v>233</v>
       </c>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6285,10 +6595,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06E65B66-6452-45A1-AB5A-A63AF65A2652}">
-  <dimension ref="B2:D25"/>
+  <dimension ref="B2:D26"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6436,34 +6746,32 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
-      <c r="B18" s="20"/>
+    <row r="18" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
+      <c r="B18" s="28" t="s">
+        <v>261</v>
+      </c>
       <c r="C18" s="23"/>
       <c r="D18" s="24"/>
     </row>
-    <row r="19" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="B19" s="25" t="s">
+    <row r="19" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="B19" s="20"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="24"/>
+    </row>
+    <row r="20" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
+      <c r="B20" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C20" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="D19" s="27" t="s">
+      <c r="D20" s="27" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
-      <c r="B20" s="20" t="s">
+    <row r="21" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="B21" s="20" t="s">
         <v>83</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="D20" s="24"/>
-    </row>
-    <row r="21" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
-      <c r="B21" s="28" t="s">
-        <v>84</v>
       </c>
       <c r="C21" s="23" t="s">
         <v>89</v>
@@ -6472,7 +6780,7 @@
     </row>
     <row r="22" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B22" s="28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C22" s="23" t="s">
         <v>89</v>
@@ -6480,23 +6788,32 @@
       <c r="D22" s="24"/>
     </row>
     <row r="23" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
-      <c r="B23" s="25" t="s">
-        <v>86</v>
+      <c r="B23" s="28" t="s">
+        <v>85</v>
       </c>
       <c r="C23" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="D23" s="27"/>
+      <c r="D23" s="24"/>
     </row>
     <row r="24" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
-      <c r="B24" s="20"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="24"/>
+      <c r="B24" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" s="27"/>
     </row>
     <row r="25" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
-      <c r="B25" s="25"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="27"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="24"/>
+    </row>
+    <row r="26" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="B26" s="25"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/docs/卡死你3000命令手册.xlsx
+++ b/docs/卡死你3000命令手册.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20379"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20380"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProgramData\kasini3000\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C76570D-3932-441C-82AC-7D63BF232B10}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5316E335-E1D3-420E-937F-7356248A7A56}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6240" tabRatio="693" activeTab="2" xr2:uid="{99DAB3B6-FFCD-47B2-A6C4-D70D810330D7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6240" tabRatio="693" activeTab="10" xr2:uid="{99DAB3B6-FFCD-47B2-A6C4-D70D810330D7}"/>
   </bookViews>
   <sheets>
     <sheet name="安装升级" sheetId="6" r:id="rId1"/>
@@ -867,10 +867,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3 两台卡死你3000主控机之间的高可用，只与定时任务有关，若没使用定时任务，则不需要高可用功能。只与这个数据库文件【c:\ProgramData\kasini3000\cmdb\d当前库\user_crontab.sqlite3】有关。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1 两台卡死你3000主控机之间的高可用，支持win-win互联；linux-linux互联；暂时不支持win-linux互联</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2263,6 +2259,10 @@
   </si>
   <si>
     <t>ftp：↓下面的命令，要求在主控机是win。依赖winscp模块。若主控机是linux，请使用lftp命令。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 两台卡死你3000主控机之间的高可用，只与定时任务有关，若没使用定时任务，则不需要高可用功能。只与这个数据库文件【~\kasini3000\cmdb\user_crontab.sqlite3】有关。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4872,7 +4872,7 @@
     </row>
     <row r="4" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B4" s="30" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C4" s="30"/>
       <c r="D4" s="30"/>
@@ -4880,7 +4880,7 @@
     <row r="5" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
       <c r="C5" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>57</v>
@@ -4888,13 +4888,13 @@
     </row>
     <row r="6" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4904,7 +4904,7 @@
     </row>
     <row r="8" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B8" s="30" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C8" s="30"/>
       <c r="D8" s="30"/>
@@ -4914,10 +4914,10 @@
         <v>54</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4927,7 +4927,7 @@
     </row>
     <row r="11" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B11" s="30" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C11" s="30"/>
       <c r="D11" s="30"/>
@@ -4953,7 +4953,7 @@
     </row>
     <row r="15" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B15" s="30" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C15" s="30"/>
       <c r="D15" s="30"/>
@@ -4963,7 +4963,7 @@
         <v>150</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>151</v>
@@ -4974,7 +4974,7 @@
         <v>149</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>152</v>
@@ -4987,7 +4987,7 @@
     </row>
     <row r="19" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B19" s="30" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C19" s="30"/>
       <c r="D19" s="30"/>
@@ -4997,21 +4997,21 @@
         <v>145</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
@@ -5119,10 +5119,10 @@
     </row>
     <row r="7" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="D7" s="3"/>
     </row>
@@ -5139,38 +5139,38 @@
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="2:4" ht="74.25" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="D13" s="3"/>
     </row>
@@ -5203,8 +5203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C096F4A-B7D6-4EB9-9367-C9F04F25B1B1}">
   <dimension ref="B2:D14"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5229,7 +5229,7 @@
       <c r="B3" s="29"/>
       <c r="C3" s="23"/>
       <c r="D3" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
@@ -5241,7 +5241,7 @@
       <c r="B5" s="20"/>
       <c r="C5" s="21"/>
       <c r="D5" s="22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
@@ -5255,39 +5255,39 @@
       <c r="B7" s="20"/>
       <c r="C7" s="23"/>
       <c r="D7" s="24" t="s">
-        <v>154</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B8" s="20"/>
       <c r="C8" s="21"/>
       <c r="D8" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
       <c r="D9" s="22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B10" s="28"/>
       <c r="C10" s="23"/>
       <c r="D10" s="24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="74.25" x14ac:dyDescent="0.2">
       <c r="B11" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="C11" s="24" t="s">
-        <v>158</v>
-      </c>
       <c r="D11" s="24" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
@@ -5297,13 +5297,13 @@
     </row>
     <row r="13" spans="2:4" ht="74.25" x14ac:dyDescent="0.2">
       <c r="B13" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="C13" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="C13" s="24" t="s">
-        <v>160</v>
-      </c>
       <c r="D13" s="24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
@@ -5349,14 +5349,14 @@
     </row>
     <row r="4" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="3"/>
     </row>
     <row r="5" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B5" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="3"/>
@@ -5385,7 +5385,7 @@
         <v>76</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
@@ -5396,7 +5396,7 @@
         <v>24</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
@@ -5407,7 +5407,7 @@
         <v>25</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="74.25" x14ac:dyDescent="0.2">
@@ -5418,7 +5418,7 @@
         <v>26</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="173.25" x14ac:dyDescent="0.2">
@@ -5429,7 +5429,7 @@
         <v>31</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
@@ -5497,7 +5497,7 @@
         <v>123</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>32</v>
@@ -5522,7 +5522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A2EB81D-6C74-4CC5-B28F-5D675FA16AE3}">
   <dimension ref="B3:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -5547,7 +5547,7 @@
     <row r="4" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B4" s="10"/>
       <c r="C4" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D4" s="11"/>
     </row>
@@ -5556,10 +5556,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
@@ -5572,10 +5572,10 @@
         <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="99" x14ac:dyDescent="0.2">
@@ -5583,7 +5583,7 @@
         <v>44</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>65</v>
@@ -5596,100 +5596,100 @@
     </row>
     <row r="10" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="44" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C10" s="45"/>
       <c r="D10" s="45"/>
     </row>
     <row r="11" spans="2:4" ht="173.25" x14ac:dyDescent="0.2">
       <c r="B11" s="39" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C11" s="38"/>
       <c r="D11" s="40" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="173.25" x14ac:dyDescent="0.2">
       <c r="B12" s="41" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C12" s="42"/>
       <c r="D12" s="43" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="44" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C14" s="45"/>
       <c r="D14" s="45"/>
     </row>
     <row r="15" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B15" s="39" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D15" s="40"/>
     </row>
     <row r="16" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B16" s="41" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D16" s="43"/>
     </row>
     <row r="17" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B17" s="39" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D17" s="40"/>
     </row>
     <row r="18" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B18" s="41" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C18" s="43" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D18" s="43"/>
     </row>
     <row r="20" spans="2:4" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="44" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C20" s="45"/>
       <c r="D20" s="45"/>
     </row>
     <row r="21" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B21" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D21" s="40"/>
     </row>
     <row r="22" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B22" s="41" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C22" s="43" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D22" s="43"/>
     </row>
     <row r="24" spans="2:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="44" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C24" s="45"/>
       <c r="D24" s="45"/>
@@ -5701,10 +5701,10 @@
     </row>
     <row r="26" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B26" s="43" t="s">
+        <v>279</v>
+      </c>
+      <c r="C26" s="43" t="s">
         <v>280</v>
-      </c>
-      <c r="C26" s="43" t="s">
-        <v>281</v>
       </c>
       <c r="D26" s="43"/>
     </row>
@@ -5751,7 +5751,7 @@
         <v>71</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="198" x14ac:dyDescent="0.2">
@@ -5762,7 +5762,7 @@
         <v>72</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E3" s="33"/>
     </row>
@@ -5779,13 +5779,13 @@
         <v>74</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="396" x14ac:dyDescent="0.2">
@@ -5796,10 +5796,10 @@
         <v>134</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="123.75" x14ac:dyDescent="0.2">
@@ -5813,7 +5813,7 @@
         <v>107</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="123.75" x14ac:dyDescent="0.2">
@@ -5827,7 +5827,7 @@
         <v>108</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="24.75" x14ac:dyDescent="0.2">
@@ -5841,13 +5841,13 @@
         <v>124</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="123.75" x14ac:dyDescent="0.2">
@@ -5861,7 +5861,7 @@
         <v>107</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="123.75" x14ac:dyDescent="0.2">
@@ -5875,7 +5875,7 @@
         <v>108</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -5909,130 +5909,130 @@
         <v>23</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="37" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D3" s="47"/>
     </row>
     <row r="4" spans="2:4" ht="198" x14ac:dyDescent="0.2">
       <c r="B4" s="32" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="198" x14ac:dyDescent="0.2">
       <c r="B5" s="33" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="198" x14ac:dyDescent="0.2">
       <c r="B6" s="32" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="272.25" x14ac:dyDescent="0.2">
       <c r="B7" s="33" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="272.25" x14ac:dyDescent="0.2">
       <c r="B8" s="32" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="222.75" x14ac:dyDescent="0.2">
       <c r="B9" s="33" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="44" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C10" s="45"/>
       <c r="D10" s="45"/>
     </row>
     <row r="11" spans="2:4" ht="123.75" x14ac:dyDescent="0.2">
       <c r="B11" s="32" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="148.5" x14ac:dyDescent="0.2">
       <c r="B12" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="C12" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="C12" s="33" t="s">
-        <v>231</v>
-      </c>
       <c r="D12" s="33" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="148.5" x14ac:dyDescent="0.2">
       <c r="B13" s="32" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="44" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C14" s="45"/>
       <c r="D14" s="45"/>
@@ -6072,7 +6072,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="272.25" x14ac:dyDescent="0.2">
@@ -6083,7 +6083,7 @@
         <v>122</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="346.5" x14ac:dyDescent="0.2">
@@ -6151,7 +6151,7 @@
         <v>113</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="272.25" x14ac:dyDescent="0.2">
@@ -6221,10 +6221,10 @@
         <v>103</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="123.75" x14ac:dyDescent="0.2">
@@ -6232,10 +6232,10 @@
         <v>104</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
@@ -6246,7 +6246,7 @@
     <row r="24" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B24" s="2"/>
       <c r="C24" s="36" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D24" s="35"/>
     </row>
@@ -6310,7 +6310,7 @@
     </row>
     <row r="4" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>66</v>
@@ -6319,7 +6319,7 @@
     </row>
     <row r="5" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>66</v>
@@ -6353,7 +6353,7 @@
     </row>
     <row r="9" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>60</v>
@@ -6399,7 +6399,7 @@
         <v>50</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
@@ -6410,7 +6410,7 @@
         <v>52</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6561,7 +6561,7 @@
     </row>
     <row r="11" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>35</v>
@@ -6716,21 +6716,21 @@
     </row>
     <row r="14" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B14" s="28" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C14" s="23"/>
       <c r="D14" s="24"/>
     </row>
     <row r="15" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B15" s="28" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C15" s="23"/>
       <c r="D15" s="24"/>
     </row>
     <row r="16" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B16" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C16" s="23"/>
       <c r="D16" s="24"/>
@@ -6740,7 +6740,7 @@
         <v>78</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D17" s="27" t="s">
         <v>79</v>
@@ -6748,7 +6748,7 @@
     </row>
     <row r="18" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B18" s="28" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C18" s="23"/>
       <c r="D18" s="24"/>

--- a/docs/卡死你3000命令手册.xlsx
+++ b/docs/卡死你3000命令手册.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20380"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProgramData\kasini3000\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5316E335-E1D3-420E-937F-7356248A7A56}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F6CE24-90EC-488C-A91D-DB273C9F0CA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6240" tabRatio="693" activeTab="10" xr2:uid="{99DAB3B6-FFCD-47B2-A6C4-D70D810330D7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" tabRatio="693" xr2:uid="{99DAB3B6-FFCD-47B2-A6C4-D70D810330D7}"/>
   </bookViews>
   <sheets>
     <sheet name="安装升级" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="290">
   <si>
     <t>命令名</t>
   </si>
@@ -1537,90 +1537,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>作用等同于【k_copyfrom_ip.ps1】用于从被控机向主控机复制文件。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>多了2个功能：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-1从win到linux自动输入密码。
-2支持sudo提权。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">作用等同于【krun_ip.ps1】用于从主控机向被控机执行命令。多了2个功能：
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1从win到linux自动输入密码。
-2支持sudo提权。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3不支持传参，没有返回值。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">作用等同于【k_copyto_ip.ps1】用于从主控机向被控机复制文件。多了2个功能：
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1从win到linux自动输入密码。
-2支持sudo提权。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>作用等同于【krun_ip.ps1】用于在被控机运行脚本，或命令块。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2263,6 +2179,176 @@
   </si>
   <si>
     <t>3 两台卡死你3000主控机之间的高可用，只与定时任务有关，若没使用定时任务，则不需要高可用功能。只与这个数据库文件【~\kasini3000\cmdb\user_crontab.sqlite3】有关。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>作用等同于【k_copyfrom_ip.ps1】用于从被控机向主控机复制文件。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>多了2个功能：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+1从win到linux自动输入密码。
+2支持sudo提权。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3不支持ssh-key-file</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">作用等同于【k_copyto_ip.ps1】用于从主控机向被控机复制文件。多了2个功能：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1从win到linux自动输入密码。
+2支持sudo提权。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3不支持ssh-key-file</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">作用等同于【krun_ip.ps1】用于从主控机向被控机执行命令。多了2个功能：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1从win到linux自动输入密码。
+2支持sudo提权。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3不支持传参，没有返回值。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4不支持ssh-key-file</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zkj_s所有linux被控机改密码_验证周期_改密码_验证_对调密码_写入时间戳.ps1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>win批量改密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>linux批量改密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c:\ProgramData\kasini3000\zkj_install_powershell_offline_win2linux.ps1</t>
+  </si>
+  <si>
+    <t>从win主控机到linux被控机，离线安装powershell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依赖winscp模块，默认安装源文件目录：c:\ProgramData\kasini3000\master_script\PowerShell-6.2.7-win-x64</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4837,8 +4923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E382E6B1-25F2-40AE-8128-E7D6AD7990BA}">
   <dimension ref="B2:D28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4980,10 +5066,16 @@
         <v>152</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="2"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="3"/>
+    <row r="18" spans="2:4" ht="74.25" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="19" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B19" s="30" t="s">
@@ -5203,7 +5295,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C096F4A-B7D6-4EB9-9367-C9F04F25B1B1}">
   <dimension ref="B2:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -5255,7 +5347,7 @@
       <c r="B7" s="20"/>
       <c r="C7" s="23"/>
       <c r="D7" s="24" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
@@ -5429,7 +5521,7 @@
         <v>31</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
@@ -5559,7 +5651,7 @@
         <v>192</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
@@ -5575,7 +5667,7 @@
         <v>193</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="99" x14ac:dyDescent="0.2">
@@ -5596,100 +5688,100 @@
     </row>
     <row r="10" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="44" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C10" s="45"/>
       <c r="D10" s="45"/>
     </row>
     <row r="11" spans="2:4" ht="173.25" x14ac:dyDescent="0.2">
       <c r="B11" s="39" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C11" s="38"/>
       <c r="D11" s="40" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="173.25" x14ac:dyDescent="0.2">
       <c r="B12" s="41" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C12" s="42"/>
       <c r="D12" s="43" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="44" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C14" s="45"/>
       <c r="D14" s="45"/>
     </row>
     <row r="15" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B15" s="39" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D15" s="40"/>
     </row>
     <row r="16" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B16" s="41" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D16" s="43"/>
     </row>
     <row r="17" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B17" s="39" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D17" s="40"/>
     </row>
     <row r="18" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B18" s="41" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C18" s="43" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D18" s="43"/>
     </row>
     <row r="20" spans="2:4" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="44" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C20" s="45"/>
       <c r="D20" s="45"/>
     </row>
     <row r="21" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B21" s="39" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D21" s="40"/>
     </row>
     <row r="22" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B22" s="41" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C22" s="43" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D22" s="43"/>
     </row>
     <row r="24" spans="2:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="44" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C24" s="45"/>
       <c r="D24" s="45"/>
@@ -5701,10 +5793,10 @@
     </row>
     <row r="26" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B26" s="43" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C26" s="43" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D26" s="43"/>
     </row>
@@ -5779,7 +5871,7 @@
         <v>74</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D5" s="22" t="s">
         <v>209</v>
@@ -5796,7 +5888,7 @@
         <v>134</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E6" s="32" t="s">
         <v>201</v>
@@ -5892,8 +5984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA5960FD-8EC2-4E9F-A689-6D938F10DD67}">
   <dimension ref="B2:D14"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5920,41 +6012,41 @@
         <v>216</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D3" s="47"/>
     </row>
     <row r="4" spans="2:4" ht="198" x14ac:dyDescent="0.2">
       <c r="B4" s="32" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="198" x14ac:dyDescent="0.2">
       <c r="B5" s="33" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C5" s="33" t="s">
         <v>226</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="198" x14ac:dyDescent="0.2">
       <c r="B6" s="32" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C6" s="32" t="s">
         <v>225</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="272.25" x14ac:dyDescent="0.2">
@@ -5962,10 +6054,10 @@
         <v>222</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>234</v>
+        <v>281</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="272.25" x14ac:dyDescent="0.2">
@@ -5973,10 +6065,10 @@
         <v>223</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>236</v>
+        <v>282</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="222.75" x14ac:dyDescent="0.2">
@@ -5984,15 +6076,15 @@
         <v>224</v>
       </c>
       <c r="C9" s="33" t="s">
+        <v>283</v>
+      </c>
+      <c r="D9" s="33" t="s">
         <v>235</v>
-      </c>
-      <c r="D9" s="33" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="44" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C10" s="45"/>
       <c r="D10" s="45"/>
@@ -6016,7 +6108,7 @@
         <v>230</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="148.5" x14ac:dyDescent="0.2">
@@ -6027,7 +6119,7 @@
         <v>230</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6287,7 +6379,7 @@
   <dimension ref="B3:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6310,7 +6402,7 @@
     </row>
     <row r="4" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>66</v>
@@ -6319,18 +6411,22 @@
     </row>
     <row r="5" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>66</v>
+        <v>285</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="2"/>
-      <c r="C6" s="1"/>
+    <row r="6" spans="2:4" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>286</v>
+      </c>
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
@@ -6353,7 +6449,7 @@
     </row>
     <row r="9" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>60</v>
@@ -6561,7 +6657,7 @@
     </row>
     <row r="11" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>35</v>
@@ -6748,7 +6844,7 @@
     </row>
     <row r="18" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B18" s="28" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C18" s="23"/>
       <c r="D18" s="24"/>

--- a/docs/卡死你3000命令手册.xlsx
+++ b/docs/卡死你3000命令手册.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProgramData\kasini3000\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F6CE24-90EC-488C-A91D-DB273C9F0CA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C703E1-9858-4F26-AC56-D030482A8ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" tabRatio="693" xr2:uid="{99DAB3B6-FFCD-47B2-A6C4-D70D810330D7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" tabRatio="693" activeTab="5" xr2:uid="{99DAB3B6-FFCD-47B2-A6C4-D70D810330D7}"/>
   </bookViews>
   <sheets>
     <sheet name="安装升级" sheetId="6" r:id="rId1"/>
@@ -295,13 +295,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>下列命令，既然叫做被控机命令，那么无法用
-krun.ps1-脚本文件名 'd:\主控机路径\脚本名.ps1'来运行。
-可以用：
-krun.ps1 -powershell代码块 { d:\被控机路径\脚本名.ps1 }来运行。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>这是一个linux+powershell版的，ssh-deny-host软件，用于ban ssh密码输入错误者的ip</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -464,16 +457,6 @@
   </si>
   <si>
     <t>utg.ps1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[String]$被控机ip, #被控机ip地址，或'主控机'，或'master'
-[String]$强制提交时_被控机os类型,
-[String]$脚本文件名,
-[scriptblock]$powershell代码块 = { },
-[String]$传入参数,
-[ValidateRange(0,1)][int]$启用状态 = 1,
-[String]$备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1353,37 +1336,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">必须在cdip、cdg之后运行
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>krun.ps1 
--脚本文件名 'd:\xxx.ps1'
-或
--powershell代码块 { powershell代码 }
-二者之一。 
--全部传入参数 'ab c',(get-date)
-#powershell对象组成的数组。脚本或代码块的参数
--复制主控机node_script目录到被控机 $true</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>对单个ip，需要先cdip</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1398,60 +1350,6 @@
   </si>
   <si>
     <t>返回 0.92之类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必须在cdip、cdg之后运行</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-k-commit-rs.ps1的前题是kcd，即必须指定运行脚本的机子。再指定运行的脚本。
--脚本文件名 'd:\主控机目录\脚本名.ps1'
-或
--powershell代码块 { powershell代码 或d:\被控机目录\脚本名.ps1}
-二者之一。 
--端口 22 #只对linux有效。并且端口绑定所有被控机组
--全部传入参数 "'ab c',(get-date)"
-#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>用逗号分隔的字符串，字符串外用单双引号包围</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。脚本或代码块的参数
--任务超时时间 [timespan]'00:10:00' 
--备注 '每个备注尽量不同'
--复制主控机node_script目录到被控机 $true</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1541,18 +1439,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>【ipaddress】--&gt;【目的ip地址】
-【port】--&gt;【端口】
-【user】--&gt;【用户名】
-【pwd】--&gt;【密码】
-【sudo】以root权限执行
-【timeout】超时
-【showwindow】显示窗口
-【file】主控机上的脚本文件名
-【ps1Command】ps1代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>【ipaddress】--&gt;【目的ip地址】
 【port】--&gt;【端口】
@@ -1674,60 +1560,6 @@
   </si>
   <si>
     <t>支持下列参数 'win7','win8','win10','win2008r2','win2012r2','win2016','win2019','centos6','centos7','centos8','debian9','debian10','ubuntu1404','ubuntu1604','ubuntu1804','ubuntu2004','Amazon Linux 2','kylin v10','alpine','统信UOS服务器版'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>必须在cdip、cdg之后运行</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-k-commit.ps1的前题是cd，即必须指定多个运行脚本的机子。再指定运行的脚本。
--脚本文件名 'd:\主控机目录\脚本名.ps1'
-或
--powershell代码块 { powershell代码 或d:\被控机目录\脚本名.ps1}
-二者之一。 
--端口 22 #只对linux有效。并且端口绑定所有被控机组
--全部传入参数 "'ab c',(get-date)"
-#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>用逗号分隔的字符串，字符串外用单双引号包围</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。脚本或代码块的参数
--任务超时时间 [timespan]'00:30:00' 
--备注 '每个备注尽量不同'
--复制主控机node_script目录到被控机 $true</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2349,6 +2181,174 @@
   </si>
   <si>
     <t>依赖winscp模块，默认安装源文件目录：c:\ProgramData\kasini3000\master_script\PowerShell-6.2.7-win-x64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">必须在cdip、cdg之后运行
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>krun.ps1 
+-ps1脚本文件名 'd:\xxx.ps1'
+或
+-powershell代码块 { powershell代码 }
+二者之一。 
+-全部传入参数 'ab c',(get-date)
+#powershell对象组成的数组。脚本或代码块的参数
+-复制主控机node_script目录到被控机 $true</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必须在cdip、cdg之后运行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+k-commit.ps1的前题是cd，即必须指定多个运行脚本的机子。再指定运行的脚本。
+-ps1脚本文件名 'd:\主控机目录\脚本名.ps1'
+或
+-powershell代码块 { powershell代码 或d:\被控机目录\脚本名.ps1}
+二者之一。 
+-端口 22 #只对linux有效。并且端口绑定所有被控机组
+-全部传入参数 "'ab c',(get-date)"
+#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用逗号分隔的字符串，字符串外用单双引号包围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。脚本或代码块的参数
+-任务超时时间 [timespan]'00:30:00' 
+-备注 '每个备注尽量不同'
+-复制主控机node_script目录到被控机 $true</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必须在cdip、cdg之后运行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+k-commit-rs.ps1的前题是kcd，即必须指定运行脚本的机子。再指定运行的脚本。
+-ps1脚本文件名 'd:\主控机目录\脚本名.ps1'
+或
+-powershell代码块 { powershell代码 或d:\被控机目录\脚本名.ps1}
+二者之一。 
+-端口 22 #只对linux有效。并且端口绑定所有被控机组
+-全部传入参数 "'ab c',(get-date)"
+#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用逗号分隔的字符串，字符串外用单双引号包围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。脚本或代码块的参数
+-任务超时时间 [timespan]'00:10:00' 
+-备注 '每个备注尽量不同'
+-复制主控机node_script目录到被控机 $true</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【ipaddress】--&gt;【目的ip地址】
+【port】--&gt;【端口】
+【user】--&gt;【用户名】
+【pwd】--&gt;【密码】
+【sudo】以root权限执行
+【timeout】超时
+【showwindow】显示窗口
+【file】ps1脚本文件名
+【scriptblock】powershell代码块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下列命令，既然叫做被控机命令，那么无法用
+krun.ps1-ps1脚本文件名 'd:\主控机路径\脚本名.ps1'来运行。
+可以用：
+krun.ps1 -powershell代码块 { d:\被控机路径\脚本名.ps1 }来运行。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[String]$被控机ip, #被控机ip地址，或'主控机'，或'master'
+[String]$强制提交时_被控机os类型,
+[String]$ps1脚本文件名,
+[scriptblock]$powershell代码块 = { },
+[String]$传入参数,
+[ValidateRange(0,1)][int]$启用状态 = 1,
+[String]$备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4923,7 +4923,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E382E6B1-25F2-40AE-8128-E7D6AD7990BA}">
   <dimension ref="B2:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="B18" sqref="B18:D18"/>
     </sheetView>
   </sheetViews>
@@ -4958,7 +4958,7 @@
     </row>
     <row r="4" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B4" s="30" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C4" s="30"/>
       <c r="D4" s="30"/>
@@ -4966,7 +4966,7 @@
     <row r="5" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
       <c r="C5" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>57</v>
@@ -4974,13 +4974,13 @@
     </row>
     <row r="6" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4990,7 +4990,7 @@
     </row>
     <row r="8" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B8" s="30" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C8" s="30"/>
       <c r="D8" s="30"/>
@@ -5000,10 +5000,10 @@
         <v>54</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5013,7 +5013,7 @@
     </row>
     <row r="11" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B11" s="30" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C11" s="30"/>
       <c r="D11" s="30"/>
@@ -5039,71 +5039,71 @@
     </row>
     <row r="15" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B15" s="30" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C15" s="30"/>
       <c r="D15" s="30"/>
     </row>
     <row r="16" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="74.25" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B19" s="30" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C19" s="30"/>
       <c r="D19" s="30"/>
     </row>
     <row r="20" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
@@ -5159,7 +5159,7 @@
   <dimension ref="B3:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5183,7 +5183,7 @@
     <row r="4" spans="2:4" ht="148.5" x14ac:dyDescent="0.2">
       <c r="B4" s="13"/>
       <c r="C4" s="14" t="s">
-        <v>69</v>
+        <v>288</v>
       </c>
       <c r="D4" s="15"/>
     </row>
@@ -5192,7 +5192,7 @@
         <v>37</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>35</v>
@@ -5211,58 +5211,58 @@
     </row>
     <row r="7" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="2:4" ht="74.25" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D13" s="3"/>
     </row>
@@ -5314,14 +5314,14 @@
         <v>1</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="99" x14ac:dyDescent="0.2">
       <c r="B3" s="29"/>
       <c r="C3" s="23"/>
       <c r="D3" s="22" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
@@ -5333,53 +5333,53 @@
       <c r="B5" s="20"/>
       <c r="C5" s="21"/>
       <c r="D5" s="22" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B6" s="20"/>
       <c r="C6" s="21"/>
       <c r="D6" s="22" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B7" s="20"/>
       <c r="C7" s="23"/>
       <c r="D7" s="24" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B8" s="20"/>
       <c r="C8" s="21"/>
       <c r="D8" s="22" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
       <c r="D9" s="22" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B10" s="28"/>
       <c r="C10" s="23"/>
       <c r="D10" s="24" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="74.25" x14ac:dyDescent="0.2">
       <c r="B11" s="28" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
@@ -5389,13 +5389,13 @@
     </row>
     <row r="13" spans="2:4" ht="74.25" x14ac:dyDescent="0.2">
       <c r="B13" s="28" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C13" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="D13" s="24" t="s">
         <v>159</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
@@ -5441,14 +5441,14 @@
     </row>
     <row r="4" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="3"/>
     </row>
     <row r="5" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B5" s="10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="3"/>
@@ -5471,13 +5471,13 @@
     </row>
     <row r="8" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="D8" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
@@ -5488,7 +5488,7 @@
         <v>24</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
@@ -5499,7 +5499,7 @@
         <v>25</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="74.25" x14ac:dyDescent="0.2">
@@ -5510,7 +5510,7 @@
         <v>26</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="173.25" x14ac:dyDescent="0.2">
@@ -5521,7 +5521,7 @@
         <v>31</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
@@ -5570,13 +5570,13 @@
     </row>
     <row r="17" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>146</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
@@ -5586,10 +5586,10 @@
     </row>
     <row r="19" spans="2:4" ht="99" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>32</v>
@@ -5639,7 +5639,7 @@
     <row r="4" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B4" s="10"/>
       <c r="C4" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D4" s="11"/>
     </row>
@@ -5648,10 +5648,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
@@ -5664,10 +5664,10 @@
         <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="99" x14ac:dyDescent="0.2">
@@ -5675,7 +5675,7 @@
         <v>44</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>65</v>
@@ -5688,100 +5688,100 @@
     </row>
     <row r="10" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="44" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C10" s="45"/>
       <c r="D10" s="45"/>
     </row>
     <row r="11" spans="2:4" ht="173.25" x14ac:dyDescent="0.2">
       <c r="B11" s="39" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C11" s="38"/>
       <c r="D11" s="40" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="173.25" x14ac:dyDescent="0.2">
       <c r="B12" s="41" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C12" s="42"/>
       <c r="D12" s="43" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="44" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C14" s="45"/>
       <c r="D14" s="45"/>
     </row>
     <row r="15" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B15" s="39" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="D15" s="40"/>
     </row>
     <row r="16" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B16" s="41" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="D16" s="43"/>
     </row>
     <row r="17" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B17" s="39" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D17" s="40"/>
     </row>
     <row r="18" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B18" s="41" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C18" s="43" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D18" s="43"/>
     </row>
     <row r="20" spans="2:4" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="44" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C20" s="45"/>
       <c r="D20" s="45"/>
     </row>
     <row r="21" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B21" s="39" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D21" s="40"/>
     </row>
     <row r="22" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B22" s="41" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C22" s="43" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D22" s="43"/>
     </row>
     <row r="24" spans="2:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="44" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C24" s="45"/>
       <c r="D24" s="45"/>
@@ -5793,10 +5793,10 @@
     </row>
     <row r="26" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B26" s="43" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C26" s="43" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="D26" s="43"/>
     </row>
@@ -5820,8 +5820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E04B6D6-8A0D-447F-9E16-D0B486F8063D}">
   <dimension ref="B2:E12"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5840,10 +5840,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="198" x14ac:dyDescent="0.2">
@@ -5851,75 +5851,75 @@
         <v>2</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E3" s="33"/>
     </row>
     <row r="4" spans="2:5" ht="74.25" x14ac:dyDescent="0.2">
       <c r="B4" s="20"/>
       <c r="C4" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="32"/>
     </row>
     <row r="5" spans="2:5" ht="247.5" x14ac:dyDescent="0.2">
       <c r="B5" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>209</v>
+        <v>284</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="396" x14ac:dyDescent="0.2">
       <c r="B6" s="20" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>243</v>
+        <v>285</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="123.75" x14ac:dyDescent="0.2">
       <c r="B7" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="123.75" x14ac:dyDescent="0.2">
       <c r="B8" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="24.75" x14ac:dyDescent="0.2">
@@ -5930,44 +5930,44 @@
     </row>
     <row r="10" spans="2:5" ht="396" x14ac:dyDescent="0.2">
       <c r="B10" s="20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>214</v>
+        <v>286</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="123.75" x14ac:dyDescent="0.2">
       <c r="B11" s="20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="123.75" x14ac:dyDescent="0.2">
       <c r="B12" s="21" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -5985,7 +5985,7 @@
   <dimension ref="B2:D14"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6001,130 +6001,130 @@
         <v>23</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="37" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D3" s="47"/>
     </row>
     <row r="4" spans="2:4" ht="198" x14ac:dyDescent="0.2">
       <c r="B4" s="32" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="198" x14ac:dyDescent="0.2">
       <c r="B5" s="33" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="198" x14ac:dyDescent="0.2">
       <c r="B6" s="32" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="272.25" x14ac:dyDescent="0.2">
       <c r="B7" s="33" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="272.25" x14ac:dyDescent="0.2">
       <c r="B8" s="32" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="222.75" x14ac:dyDescent="0.2">
       <c r="B9" s="33" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>235</v>
+        <v>287</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="44" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C10" s="45"/>
       <c r="D10" s="45"/>
     </row>
     <row r="11" spans="2:4" ht="123.75" x14ac:dyDescent="0.2">
       <c r="B11" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="D11" s="32" t="s">
         <v>227</v>
-      </c>
-      <c r="C11" s="32" t="s">
-        <v>233</v>
-      </c>
-      <c r="D11" s="32" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="148.5" x14ac:dyDescent="0.2">
       <c r="B12" s="33" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="148.5" x14ac:dyDescent="0.2">
       <c r="B13" s="32" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="44" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C14" s="45"/>
       <c r="D14" s="45"/>
@@ -6145,8 +6145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEE84CC1-37C0-47B0-89BC-6C6491C0B7ED}">
   <dimension ref="B3:D28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6164,69 +6164,69 @@
         <v>9</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="272.25" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="346.5" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
       <c r="C5" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D5" s="35"/>
     </row>
     <row r="6" spans="2:4" ht="74.25" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D6" s="35"/>
     </row>
     <row r="7" spans="2:4" ht="74.25" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D7" s="35"/>
     </row>
     <row r="8" spans="2:4" ht="74.25" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D8" s="35"/>
     </row>
     <row r="9" spans="2:4" ht="74.25" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D9" s="35"/>
     </row>
     <row r="10" spans="2:4" ht="74.25" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D10" s="35"/>
     </row>
@@ -6237,55 +6237,55 @@
     </row>
     <row r="12" spans="2:4" ht="173.25" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>113</v>
+        <v>289</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="272.25" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
       <c r="C13" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D13" s="35"/>
     </row>
     <row r="14" spans="2:4" ht="74.25" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D14" s="35"/>
     </row>
     <row r="15" spans="2:4" ht="74.25" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D15" s="35"/>
     </row>
     <row r="16" spans="2:4" ht="74.25" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D16" s="35"/>
     </row>
     <row r="17" spans="2:4" ht="74.25" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D17" s="35"/>
     </row>
@@ -6296,10 +6296,10 @@
     </row>
     <row r="19" spans="2:4" ht="74.25" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D19" s="35"/>
     </row>
@@ -6310,24 +6310,24 @@
     </row>
     <row r="21" spans="2:4" ht="123.75" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D21" s="32" t="s">
         <v>204</v>
-      </c>
-      <c r="D21" s="32" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="123.75" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
@@ -6338,14 +6338,14 @@
     <row r="24" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B24" s="2"/>
       <c r="C24" s="36" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D24" s="35"/>
     </row>
     <row r="25" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B25" s="2"/>
       <c r="C25" s="36" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D25" s="35"/>
     </row>
@@ -6402,7 +6402,7 @@
     </row>
     <row r="4" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>66</v>
@@ -6411,10 +6411,10 @@
     </row>
     <row r="5" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>68</v>
@@ -6422,10 +6422,10 @@
     </row>
     <row r="6" spans="2:4" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="D6" s="3"/>
     </row>
@@ -6449,7 +6449,7 @@
     </row>
     <row r="9" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>60</v>
@@ -6495,7 +6495,7 @@
         <v>50</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
@@ -6506,7 +6506,7 @@
         <v>52</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6598,7 +6598,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
@@ -6621,13 +6621,13 @@
     </row>
     <row r="7" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
@@ -6657,7 +6657,7 @@
     </row>
     <row r="11" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>35</v>
@@ -6712,36 +6712,36 @@
         <v>1</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B3" s="29"/>
       <c r="C3" s="24" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D3" s="24"/>
     </row>
     <row r="4" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B4" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B5" s="25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
@@ -6751,24 +6751,24 @@
     </row>
     <row r="7" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B7" s="20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B8" s="25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
@@ -6778,24 +6778,24 @@
     </row>
     <row r="10" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B10" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B11" s="25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
@@ -6805,46 +6805,46 @@
     </row>
     <row r="13" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B13" s="28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C13" s="23"/>
       <c r="D13" s="24"/>
     </row>
     <row r="14" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B14" s="28" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C14" s="23"/>
       <c r="D14" s="24"/>
     </row>
     <row r="15" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B15" s="28" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C15" s="23"/>
       <c r="D15" s="24"/>
     </row>
     <row r="16" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B16" s="28" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C16" s="23"/>
       <c r="D16" s="24"/>
     </row>
     <row r="17" spans="2:4" ht="74.25" x14ac:dyDescent="0.2">
       <c r="B17" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="D17" s="27" t="s">
         <v>78</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>211</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B18" s="28" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C18" s="23"/>
       <c r="D18" s="24"/>
@@ -6856,48 +6856,48 @@
     </row>
     <row r="20" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B20" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C20" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="27" t="s">
         <v>87</v>
-      </c>
-      <c r="D20" s="27" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B21" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B22" s="28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="23" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B23" s="28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D23" s="24"/>
     </row>
     <row r="24" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B24" s="25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D24" s="27"/>
     </row>

--- a/docs/卡死你3000命令手册.xlsx
+++ b/docs/卡死你3000命令手册.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProgramData\kasini3000\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C703E1-9858-4F26-AC56-D030482A8ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D9BE94-DF26-4634-B7A1-FAF61CC0927A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" tabRatio="693" activeTab="5" xr2:uid="{99DAB3B6-FFCD-47B2-A6C4-D70D810330D7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" tabRatio="693" firstSheet="1" activeTab="11" xr2:uid="{99DAB3B6-FFCD-47B2-A6C4-D70D810330D7}"/>
   </bookViews>
   <sheets>
     <sheet name="安装升级" sheetId="6" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="win声图控制台" sheetId="9" r:id="rId9"/>
     <sheet name="被控机脚本" sheetId="7" r:id="rId10"/>
     <sheet name="主控机高可用" sheetId="12" r:id="rId11"/>
+    <sheet name="压缩解压" sheetId="14" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="316">
   <si>
     <t>命令名</t>
   </si>
@@ -2351,12 +2352,102 @@
 [String]$备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>c:\ProgramData\kasini3000\zkj_install_powershell_offline_win2linux_pwd_winscp.ps1 -ip nodeip -port nodeport -user root -pwd xxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c:\ProgramData\kasini3000\zkj_install_powershell_offline_win2linux_keyfile.ps1 -ip nodeip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从kasini3000主控机，安装到卡死你3000被控机。离线安装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>l7za2zip.ps1</t>
+  </si>
+  <si>
+    <t>linux下压缩成zip</t>
+  </si>
+  <si>
+    <t>l7zu2zip.ps1</t>
+  </si>
+  <si>
+    <t>linux下更新zip</t>
+  </si>
+  <si>
+    <t>linux下压缩成7z</t>
+  </si>
+  <si>
+    <t>l7zu27z.ps1</t>
+  </si>
+  <si>
+    <t>linux下更新7z</t>
+  </si>
+  <si>
+    <t>l7zx.ps1</t>
+  </si>
+  <si>
+    <t>linux下压解压</t>
+  </si>
+  <si>
+    <t>w7za2zip.ps1</t>
+  </si>
+  <si>
+    <t>win下压缩成zip</t>
+  </si>
+  <si>
+    <t>win下更新zip</t>
+  </si>
+  <si>
+    <t>w7za27z.ps1</t>
+  </si>
+  <si>
+    <t>win下压缩成7z</t>
+  </si>
+  <si>
+    <t>win下更新7z</t>
+  </si>
+  <si>
+    <t>w7zx.ps1</t>
+  </si>
+  <si>
+    <t>win下解压</t>
+  </si>
+  <si>
+    <t>脚本名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c:\ProgramData\kasini3000\node_script\7z\</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意：
+c:\ProgramData\kasini3000\node_script\
+这个目录只保存常用工具。若压缩解压工具，被认定为不常用。则，7z这个目录将被移动到这里：
+c:\ProgramData\kasini3000\lib\7z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w7zu2zip.ps1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w7zu27z.ps1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>l7za27z.ps1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2415,6 +2506,14 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -2448,7 +2547,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -2642,6 +2741,71 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2651,7 +2815,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2784,6 +2948,30 @@
     <xf numFmtId="49" fontId="2" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2795,6 +2983,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4923,8 +5123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E382E6B1-25F2-40AE-8128-E7D6AD7990BA}">
   <dimension ref="B2:D28"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:D18"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5107,19 +5307,25 @@
       </c>
     </row>
     <row r="22" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
-      <c r="B22" s="2"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="B22" s="30" t="s">
+        <v>292</v>
+      </c>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+    </row>
+    <row r="23" spans="2:4" ht="99" x14ac:dyDescent="0.2">
       <c r="B23" s="2"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="D23" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="74.25" x14ac:dyDescent="0.2">
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
+      <c r="D24" s="6" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="25" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B25" s="2"/>
@@ -5296,7 +5502,7 @@
   <dimension ref="B2:D14"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5410,6 +5616,171 @@
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A81B4859-7EDB-49B6-ACD7-CB06C86DC501}">
+  <dimension ref="B2:D20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="45.5" customWidth="1"/>
+    <col min="3" max="3" width="28.375" customWidth="1"/>
+    <col min="4" max="4" width="39.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" ht="45.75" x14ac:dyDescent="0.2">
+      <c r="B2" s="44" t="s">
+        <v>310</v>
+      </c>
+      <c r="C2" s="51" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="56" t="s">
+        <v>311</v>
+      </c>
+      <c r="C3" s="57"/>
+      <c r="D3" s="58" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="B4" s="47" t="s">
+        <v>293</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>294</v>
+      </c>
+      <c r="D4" s="59"/>
+    </row>
+    <row r="5" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="B5" s="48" t="s">
+        <v>295</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>296</v>
+      </c>
+      <c r="D5" s="59"/>
+    </row>
+    <row r="6" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="B6" s="47"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="59"/>
+    </row>
+    <row r="7" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="B7" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>297</v>
+      </c>
+      <c r="D7" s="59"/>
+    </row>
+    <row r="8" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="B8" s="47" t="s">
+        <v>298</v>
+      </c>
+      <c r="C8" s="45" t="s">
+        <v>299</v>
+      </c>
+      <c r="D8" s="59"/>
+    </row>
+    <row r="9" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="B9" s="49"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="59"/>
+    </row>
+    <row r="10" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="B10" s="47" t="s">
+        <v>300</v>
+      </c>
+      <c r="C10" s="45" t="s">
+        <v>301</v>
+      </c>
+      <c r="D10" s="59"/>
+    </row>
+    <row r="11" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="B11" s="49"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="59"/>
+    </row>
+    <row r="12" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="B12" s="47" t="s">
+        <v>302</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>303</v>
+      </c>
+      <c r="D12" s="59"/>
+    </row>
+    <row r="13" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="B13" s="48" t="s">
+        <v>313</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>304</v>
+      </c>
+      <c r="D13" s="59"/>
+    </row>
+    <row r="14" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="B14" s="50"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="59"/>
+    </row>
+    <row r="15" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="B15" s="49" t="s">
+        <v>305</v>
+      </c>
+      <c r="C15" s="46" t="s">
+        <v>306</v>
+      </c>
+      <c r="D15" s="59"/>
+    </row>
+    <row r="16" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="B16" s="47" t="s">
+        <v>314</v>
+      </c>
+      <c r="C16" s="45" t="s">
+        <v>307</v>
+      </c>
+      <c r="D16" s="59"/>
+    </row>
+    <row r="17" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="B17" s="49"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="59"/>
+    </row>
+    <row r="18" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="B18" s="47" t="s">
+        <v>308</v>
+      </c>
+      <c r="C18" s="45" t="s">
+        <v>309</v>
+      </c>
+      <c r="D18" s="59"/>
+    </row>
+    <row r="19" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="B19" s="39"/>
+      <c r="C19" s="38"/>
+    </row>
+    <row r="20" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="B20" s="41"/>
+      <c r="C20" s="42"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:D18"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5687,11 +6058,11 @@
       <c r="D9" s="6"/>
     </row>
     <row r="10" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="52" t="s">
         <v>256</v>
       </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
     </row>
     <row r="11" spans="2:4" ht="173.25" x14ac:dyDescent="0.2">
       <c r="B11" s="39" t="s">
@@ -5712,11 +6083,11 @@
       </c>
     </row>
     <row r="14" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="52" t="s">
         <v>273</v>
       </c>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
     </row>
     <row r="15" spans="2:4" ht="49.5" x14ac:dyDescent="0.2">
       <c r="B15" s="39" t="s">
@@ -5755,11 +6126,11 @@
       <c r="D18" s="43"/>
     </row>
     <row r="20" spans="2:4" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="52" t="s">
         <v>272</v>
       </c>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
     </row>
     <row r="21" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B21" s="39" t="s">
@@ -5780,11 +6151,11 @@
       <c r="D22" s="43"/>
     </row>
     <row r="24" spans="2:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="44" t="s">
+      <c r="B24" s="52" t="s">
         <v>269</v>
       </c>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
     </row>
     <row r="25" spans="2:4" ht="24.75" x14ac:dyDescent="0.2">
       <c r="B25" s="39"/>
@@ -6011,10 +6382,10 @@
       <c r="B3" s="37" t="s">
         <v>212</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="54" t="s">
         <v>242</v>
       </c>
-      <c r="D3" s="47"/>
+      <c r="D3" s="55"/>
     </row>
     <row r="4" spans="2:4" ht="198" x14ac:dyDescent="0.2">
       <c r="B4" s="32" t="s">
@@ -6083,11 +6454,11 @@
       </c>
     </row>
     <row r="10" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="52" t="s">
         <v>243</v>
       </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
     </row>
     <row r="11" spans="2:4" ht="123.75" x14ac:dyDescent="0.2">
       <c r="B11" s="32" t="s">
@@ -6123,11 +6494,11 @@
       </c>
     </row>
     <row r="14" spans="2:4" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="52" t="s">
         <v>228</v>
       </c>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6145,7 +6516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEE84CC1-37C0-47B0-89BC-6C6491C0B7ED}">
   <dimension ref="B3:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
